--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -4361,7 +4361,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -3307,9 +3307,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -3327,9 +3339,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -3347,9 +3367,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3367,9 +3395,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -3387,9 +3423,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -3407,9 +3451,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -3427,10 +3479,22 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -5098,10 +5162,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -5118,10 +5190,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -5138,10 +5218,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -5158,10 +5246,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -5178,10 +5274,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -5198,10 +5302,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -5218,10 +5330,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -5238,10 +5358,18 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -5258,10 +5386,18 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -5278,10 +5414,18 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
+      <c r="D44" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -5298,10 +5442,18 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="n"/>
+      <c r="A45" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B45" s="28" t="n"/>
       <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
+      <c r="D45" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -5318,10 +5470,18 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="n"/>
+      <c r="A46" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B46" s="28" t="n"/>
       <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
+      <c r="D46" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -5338,10 +5498,18 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="n"/>
+      <c r="A47" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
+      <c r="D47" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -6889,9 +7057,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -6909,9 +7085,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -6929,9 +7113,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6949,9 +7141,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -6969,9 +7169,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -6989,9 +7197,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -7009,9 +7225,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -7029,9 +7253,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -7049,9 +7281,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -7069,9 +7309,17 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
+      <c r="C44" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D44" s="28" t="n"/>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
@@ -8680,9 +8928,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8700,9 +8956,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -8720,9 +8984,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -8740,9 +9012,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -8760,10 +9040,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -11661,7 +11949,11 @@
       <c r="R7" s="28" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="C8" s="28" t="n"/>
       <c r="D8" s="28" t="n"/>
       <c r="E8" s="28" t="n"/>
@@ -11680,7 +11972,11 @@
       <c r="R8" s="28" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="n"/>
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="C9" s="28" t="n"/>
       <c r="D9" s="28" t="n"/>
       <c r="E9" s="28" t="n"/>
@@ -11699,7 +11995,11 @@
       <c r="R9" s="28" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="n"/>
+      <c r="A10" s="29" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
       <c r="C10" s="28" t="n"/>
       <c r="D10" s="28" t="n"/>
       <c r="E10" s="28" t="n"/>
@@ -11819,7 +12119,11 @@
       <c r="R14" s="28" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="28" t="n"/>
       <c r="D15" s="33" t="inlineStr">
@@ -11847,7 +12151,11 @@
       <c r="R15" s="28" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="B16" s="11" t="n"/>
       <c r="C16" s="28" t="n"/>
       <c r="D16" s="28" t="n"/>
@@ -11891,8 +12199,14 @@
       <c r="R17" s="28" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="28" t="n"/>
       <c r="D18" s="28" t="n"/>
       <c r="E18" s="28" t="n"/>
@@ -11911,8 +12225,14 @@
       <c r="R18" s="28" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="13" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" s="28" t="n"/>
       <c r="D19" s="39" t="inlineStr">
         <is>
@@ -11935,8 +12255,14 @@
       <c r="R19" s="28" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n"/>
-      <c r="B20" s="13" t="n"/>
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="28" t="n"/>
       <c r="D20" s="41" t="inlineStr">
         <is>
@@ -12011,8 +12337,14 @@
       <c r="R22" s="28" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" s="28" t="n"/>
       <c r="D23" s="28" t="n"/>
       <c r="E23" s="28" t="n"/>
@@ -12031,8 +12363,14 @@
       <c r="R23" s="28" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C24" s="28" t="n"/>
       <c r="D24" s="28" t="n"/>
       <c r="E24" s="28" t="n"/>
@@ -12051,8 +12389,14 @@
       <c r="R24" s="28" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C25" s="28" t="n"/>
       <c r="D25" s="28" t="n"/>
       <c r="G25" s="28" t="n"/>
@@ -12117,8 +12461,14 @@
       <c r="R27" s="28" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -12140,8 +12490,14 @@
       <c r="R28" s="28" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="13" t="n"/>
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -12157,8 +12513,14 @@
       <c r="R29" s="28" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="13" t="n"/>
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C30" s="28" t="n"/>
       <c r="D30" s="63" t="n"/>
       <c r="H30" s="61" t="n"/>
@@ -12262,8 +12624,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -12282,9 +12652,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12302,9 +12684,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12322,10 +12716,26 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -12342,10 +12752,26 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -12362,10 +12788,26 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -12382,10 +12824,22 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -12402,10 +12856,26 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
-      <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B42" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -12422,10 +12892,22 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -12442,10 +12924,26 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
-      <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B44" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C44" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D44" s="28" t="inlineStr">
+        <is>
+          <t>TP 6H</t>
+        </is>
+      </c>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -12462,10 +12960,22 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="n"/>
+      <c r="A45" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B45" s="28" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
+      <c r="C45" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D45" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -12482,10 +12992,26 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="n"/>
-      <c r="B46" s="28" t="n"/>
-      <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
+      <c r="A46" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B46" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C46" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D46" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -12502,10 +13028,18 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="n"/>
+      <c r="A47" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
+      <c r="D47" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -12522,10 +13056,18 @@
       <c r="R47" s="28" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="28" t="n"/>
+      <c r="A48" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B48" s="28" t="n"/>
       <c r="C48" s="28" t="n"/>
-      <c r="D48" s="28" t="n"/>
+      <c r="D48" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E48" s="28" t="n"/>
       <c r="F48" s="28" t="n"/>
       <c r="G48" s="28" t="n"/>
@@ -12542,10 +13084,18 @@
       <c r="R48" s="28" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="28" t="n"/>
+      <c r="A49" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B49" s="28" t="n"/>
       <c r="C49" s="28" t="n"/>
-      <c r="D49" s="28" t="n"/>
+      <c r="D49" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E49" s="28" t="n"/>
       <c r="F49" s="28" t="n"/>
       <c r="G49" s="28" t="n"/>
@@ -12562,7 +13112,11 @@
       <c r="R49" s="28" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="28" t="n"/>
+      <c r="A50" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B50" s="28" t="n"/>
       <c r="C50" s="28" t="n"/>
       <c r="D50" s="28" t="n"/>
@@ -13452,7 +14006,11 @@
       <c r="R7" s="28" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="C8" s="28" t="n"/>
       <c r="D8" s="28" t="n"/>
       <c r="E8" s="28" t="n"/>
@@ -13471,7 +14029,11 @@
       <c r="R8" s="28" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="n"/>
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
       <c r="C9" s="28" t="n"/>
       <c r="D9" s="28" t="n"/>
       <c r="E9" s="28" t="n"/>
@@ -13610,7 +14172,11 @@
       <c r="R14" s="28" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="28" t="n"/>
       <c r="D15" s="33" t="inlineStr">
@@ -13682,8 +14248,14 @@
       <c r="R17" s="28" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="28" t="n"/>
       <c r="D18" s="28" t="n"/>
       <c r="E18" s="28" t="n"/>
@@ -13702,8 +14274,14 @@
       <c r="R18" s="28" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="13" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" s="28" t="n"/>
       <c r="D19" s="39" t="inlineStr">
         <is>
@@ -13802,8 +14380,14 @@
       <c r="R22" s="28" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="28" t="n"/>
       <c r="D23" s="28" t="n"/>
       <c r="E23" s="28" t="n"/>
@@ -13822,8 +14406,14 @@
       <c r="R23" s="28" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" s="28" t="n"/>
       <c r="D24" s="28" t="n"/>
       <c r="E24" s="28" t="n"/>
@@ -13908,8 +14498,14 @@
       <c r="R27" s="28" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -13931,8 +14527,14 @@
       <c r="R28" s="28" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="13" t="n"/>
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -14053,8 +14655,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -14073,10 +14683,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -14093,10 +14715,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -14113,10 +14743,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -14133,10 +14771,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15844,8 +16490,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -15864,8 +16518,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -15884,9 +16546,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -15904,10 +16574,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -15924,10 +16602,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15944,7 +16630,11 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
@@ -17635,10 +18325,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -17655,10 +18357,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -17675,10 +18389,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -17695,10 +18417,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -17715,9 +18445,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -18825,7 +19563,11 @@
       <c r="R7" s="28" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
       <c r="C8" s="28" t="n"/>
       <c r="D8" s="28" t="n"/>
       <c r="E8" s="28" t="n"/>
@@ -18983,7 +19725,11 @@
       <c r="R14" s="28" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="28" t="n"/>
       <c r="D15" s="33" t="inlineStr">
@@ -19055,8 +19801,14 @@
       <c r="R17" s="28" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C18" s="28" t="n"/>
       <c r="D18" s="28" t="n"/>
       <c r="E18" s="28" t="n"/>
@@ -19175,8 +19927,14 @@
       <c r="R22" s="28" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C23" s="28" t="n"/>
       <c r="D23" s="28" t="n"/>
       <c r="E23" s="28" t="n"/>
@@ -19281,8 +20039,14 @@
       <c r="R27" s="28" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -19426,8 +20190,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -19446,8 +20218,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -19466,10 +20246,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -19486,10 +20278,22 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -19506,10 +20310,22 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -19526,10 +20342,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -19546,9 +20370,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -19566,9 +20398,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -19586,9 +20426,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -23008,9 +23856,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -23028,9 +23884,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -23048,9 +23912,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -23068,9 +23940,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -23088,10 +23968,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -23108,10 +23996,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -24799,9 +25695,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -24819,9 +25723,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -24839,9 +25755,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -24859,9 +25787,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -24879,9 +25815,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -24899,9 +25843,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -24919,9 +25871,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -24939,10 +25899,22 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -24959,10 +25931,18 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -3307,9 +3307,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -3327,9 +3339,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -3347,9 +3367,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3367,9 +3395,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -3387,9 +3423,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -3407,9 +3451,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -3427,10 +3479,22 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -4361,7 +4425,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -5098,10 +5162,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -5118,10 +5190,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -5138,10 +5218,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -5158,10 +5246,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -5178,10 +5274,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -5198,10 +5302,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -5218,10 +5330,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -5238,10 +5358,18 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -5258,10 +5386,18 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -5278,10 +5414,18 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
+      <c r="D44" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -5298,10 +5442,18 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="n"/>
+      <c r="A45" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B45" s="28" t="n"/>
       <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
+      <c r="D45" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -5318,10 +5470,18 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="n"/>
+      <c r="A46" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B46" s="28" t="n"/>
       <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
+      <c r="D46" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -5338,10 +5498,18 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="n"/>
+      <c r="A47" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
+      <c r="D47" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -6889,9 +7057,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -6909,9 +7085,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -6929,9 +7113,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6949,9 +7141,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -6969,9 +7169,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -6989,9 +7197,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -7009,9 +7225,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -7029,9 +7253,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -7049,9 +7281,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -7069,9 +7309,17 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
+      <c r="C44" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D44" s="28" t="n"/>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
@@ -8680,9 +8928,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8700,9 +8956,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -8720,9 +8984,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -8740,9 +9012,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -8760,10 +9040,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -11661,7 +11949,11 @@
       <c r="R7" s="28" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="C8" s="28" t="n"/>
       <c r="D8" s="28" t="n"/>
       <c r="E8" s="28" t="n"/>
@@ -11680,7 +11972,11 @@
       <c r="R8" s="28" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="n"/>
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="C9" s="28" t="n"/>
       <c r="D9" s="28" t="n"/>
       <c r="E9" s="28" t="n"/>
@@ -11699,7 +11995,11 @@
       <c r="R9" s="28" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="n"/>
+      <c r="A10" s="29" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
       <c r="C10" s="28" t="n"/>
       <c r="D10" s="28" t="n"/>
       <c r="E10" s="28" t="n"/>
@@ -11819,7 +12119,11 @@
       <c r="R14" s="28" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="28" t="n"/>
       <c r="D15" s="33" t="inlineStr">
@@ -11847,7 +12151,11 @@
       <c r="R15" s="28" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="B16" s="11" t="n"/>
       <c r="C16" s="28" t="n"/>
       <c r="D16" s="28" t="n"/>
@@ -11891,8 +12199,14 @@
       <c r="R17" s="28" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="28" t="n"/>
       <c r="D18" s="28" t="n"/>
       <c r="E18" s="28" t="n"/>
@@ -11911,8 +12225,14 @@
       <c r="R18" s="28" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="13" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" s="28" t="n"/>
       <c r="D19" s="39" t="inlineStr">
         <is>
@@ -11935,8 +12255,14 @@
       <c r="R19" s="28" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n"/>
-      <c r="B20" s="13" t="n"/>
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="28" t="n"/>
       <c r="D20" s="41" t="inlineStr">
         <is>
@@ -12011,8 +12337,14 @@
       <c r="R22" s="28" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" s="28" t="n"/>
       <c r="D23" s="28" t="n"/>
       <c r="E23" s="28" t="n"/>
@@ -12031,8 +12363,14 @@
       <c r="R23" s="28" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C24" s="28" t="n"/>
       <c r="D24" s="28" t="n"/>
       <c r="E24" s="28" t="n"/>
@@ -12051,8 +12389,14 @@
       <c r="R24" s="28" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C25" s="28" t="n"/>
       <c r="D25" s="28" t="n"/>
       <c r="G25" s="28" t="n"/>
@@ -12117,8 +12461,14 @@
       <c r="R27" s="28" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -12140,8 +12490,14 @@
       <c r="R28" s="28" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="13" t="n"/>
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -12157,8 +12513,14 @@
       <c r="R29" s="28" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="13" t="n"/>
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C30" s="28" t="n"/>
       <c r="D30" s="63" t="n"/>
       <c r="H30" s="61" t="n"/>
@@ -12262,8 +12624,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -12282,9 +12652,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12302,9 +12684,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12322,10 +12716,26 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -12342,10 +12752,26 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -12362,10 +12788,26 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -12382,10 +12824,22 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -12402,10 +12856,26 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
-      <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B42" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -12422,10 +12892,22 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -12442,10 +12924,26 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
-      <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B44" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C44" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D44" s="28" t="inlineStr">
+        <is>
+          <t>TP 6H</t>
+        </is>
+      </c>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -12462,10 +12960,22 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="n"/>
+      <c r="A45" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B45" s="28" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
+      <c r="C45" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D45" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -12482,10 +12992,26 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="n"/>
-      <c r="B46" s="28" t="n"/>
-      <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
+      <c r="A46" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B46" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C46" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D46" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -12502,10 +13028,18 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="n"/>
+      <c r="A47" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
+      <c r="D47" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -12522,10 +13056,18 @@
       <c r="R47" s="28" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="28" t="n"/>
+      <c r="A48" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B48" s="28" t="n"/>
       <c r="C48" s="28" t="n"/>
-      <c r="D48" s="28" t="n"/>
+      <c r="D48" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E48" s="28" t="n"/>
       <c r="F48" s="28" t="n"/>
       <c r="G48" s="28" t="n"/>
@@ -12542,10 +13084,18 @@
       <c r="R48" s="28" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="28" t="n"/>
+      <c r="A49" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B49" s="28" t="n"/>
       <c r="C49" s="28" t="n"/>
-      <c r="D49" s="28" t="n"/>
+      <c r="D49" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E49" s="28" t="n"/>
       <c r="F49" s="28" t="n"/>
       <c r="G49" s="28" t="n"/>
@@ -12562,7 +13112,11 @@
       <c r="R49" s="28" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="28" t="n"/>
+      <c r="A50" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B50" s="28" t="n"/>
       <c r="C50" s="28" t="n"/>
       <c r="D50" s="28" t="n"/>
@@ -13316,7 +13870,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -13452,7 +14006,11 @@
       <c r="R7" s="28" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="C8" s="28" t="n"/>
       <c r="D8" s="28" t="n"/>
       <c r="E8" s="28" t="n"/>
@@ -13471,7 +14029,11 @@
       <c r="R8" s="28" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="n"/>
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
       <c r="C9" s="28" t="n"/>
       <c r="D9" s="28" t="n"/>
       <c r="E9" s="28" t="n"/>
@@ -13610,7 +14172,11 @@
       <c r="R14" s="28" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="28" t="n"/>
       <c r="D15" s="33" t="inlineStr">
@@ -13682,8 +14248,14 @@
       <c r="R17" s="28" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="28" t="n"/>
       <c r="D18" s="28" t="n"/>
       <c r="E18" s="28" t="n"/>
@@ -13702,8 +14274,14 @@
       <c r="R18" s="28" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="13" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" s="28" t="n"/>
       <c r="D19" s="39" t="inlineStr">
         <is>
@@ -13802,8 +14380,14 @@
       <c r="R22" s="28" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="28" t="n"/>
       <c r="D23" s="28" t="n"/>
       <c r="E23" s="28" t="n"/>
@@ -13822,8 +14406,14 @@
       <c r="R23" s="28" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" s="28" t="n"/>
       <c r="D24" s="28" t="n"/>
       <c r="E24" s="28" t="n"/>
@@ -13908,8 +14498,14 @@
       <c r="R27" s="28" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -13931,8 +14527,14 @@
       <c r="R28" s="28" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="13" t="n"/>
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -14053,8 +14655,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -14073,10 +14683,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -14093,10 +14715,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -14113,10 +14743,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -14133,10 +14771,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15107,7 +15753,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -15844,8 +16490,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -15864,8 +16518,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -15884,9 +16546,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -15904,10 +16574,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -15924,10 +16602,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15944,7 +16630,11 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
@@ -16898,7 +17588,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -17635,10 +18325,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -17655,10 +18357,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -17675,10 +18389,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -17695,10 +18417,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -17715,9 +18445,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -18689,7 +19427,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -18825,7 +19563,11 @@
       <c r="R7" s="28" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
       <c r="C8" s="28" t="n"/>
       <c r="D8" s="28" t="n"/>
       <c r="E8" s="28" t="n"/>
@@ -18983,7 +19725,11 @@
       <c r="R14" s="28" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="28" t="n"/>
       <c r="D15" s="33" t="inlineStr">
@@ -19055,8 +19801,14 @@
       <c r="R17" s="28" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C18" s="28" t="n"/>
       <c r="D18" s="28" t="n"/>
       <c r="E18" s="28" t="n"/>
@@ -19175,8 +19927,14 @@
       <c r="R22" s="28" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C23" s="28" t="n"/>
       <c r="D23" s="28" t="n"/>
       <c r="E23" s="28" t="n"/>
@@ -19281,8 +20039,14 @@
       <c r="R27" s="28" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -19426,8 +20190,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -19446,8 +20218,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -19466,10 +20246,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -19486,10 +20278,22 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -19506,10 +20310,22 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -19526,10 +20342,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -19546,9 +20370,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -19566,9 +20398,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -19586,9 +20426,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -23008,9 +23856,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -23028,9 +23884,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -23048,9 +23912,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -23068,9 +23940,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -23088,10 +23968,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -23108,10 +23996,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -24799,9 +25695,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -24819,9 +25723,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -24839,9 +25755,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -24859,9 +25787,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -24879,9 +25815,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -24899,9 +25843,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -24919,9 +25871,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -24939,10 +25899,22 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -24959,10 +25931,18 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -4425,7 +4425,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -13870,7 +13870,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -17588,7 +17588,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -19427,7 +19427,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -4425,7 +4425,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -13870,7 +13870,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -17588,7 +17588,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>
@@ -19427,7 +19427,7 @@
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -5192,7 +5192,7 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
@@ -5220,7 +5220,7 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B37" s="29" t="n"/>
@@ -5248,7 +5248,7 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B38" s="28" t="n"/>
@@ -5276,7 +5276,7 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B39" s="28" t="n"/>
@@ -5304,7 +5304,7 @@
     <row r="40">
       <c r="A40" s="28" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B40" s="28" t="n"/>
@@ -5332,7 +5332,7 @@
     <row r="41">
       <c r="A41" s="28" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B41" s="28" t="n"/>
@@ -5360,7 +5360,7 @@
     <row r="42">
       <c r="A42" s="28" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B42" s="28" t="n"/>
@@ -5388,7 +5388,7 @@
     <row r="43">
       <c r="A43" s="28" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B43" s="28" t="n"/>
@@ -5414,18 +5414,10 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A44" s="28" t="n"/>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="28" t="n"/>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -5442,18 +5434,10 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A45" s="28" t="n"/>
       <c r="B45" s="28" t="n"/>
       <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D45" s="28" t="n"/>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -5470,18 +5454,10 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A46" s="28" t="n"/>
       <c r="B46" s="28" t="n"/>
       <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D46" s="28" t="n"/>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -5498,18 +5474,10 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A47" s="28" t="n"/>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D47" s="28" t="n"/>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -7255,7 +7223,7 @@
     <row r="42">
       <c r="A42" s="28" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B42" s="28" t="n"/>
@@ -7281,17 +7249,9 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -7309,17 +7269,9 @@
       <c r="R43" s="28" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A44" s="28" t="n"/>
       <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C44" s="28" t="n"/>
       <c r="D44" s="28" t="n"/>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
@@ -12631,7 +12583,7 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="28" t="n"/>
@@ -12659,7 +12611,7 @@
       </c>
       <c r="B36" s="29" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="28" t="inlineStr">
@@ -12803,11 +12755,7 @@
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -12826,20 +12774,20 @@
     <row r="41">
       <c r="A41" s="28" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B41" s="28" t="n"/>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C41" s="28" t="inlineStr">
         <is>
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D41" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -12858,24 +12806,16 @@
     <row r="42">
       <c r="A42" s="28" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B42" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="inlineStr">
         <is>
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D42" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -12894,20 +12834,16 @@
     <row r="43">
       <c r="A43" s="28" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D43" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B43" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C43" s="28" t="n"/>
+      <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -12926,22 +12862,14 @@
     <row r="44">
       <c r="A44" s="28" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B44" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C44" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B44" s="28" t="n"/>
+      <c r="C44" s="28" t="n"/>
       <c r="D44" s="28" t="inlineStr">
         <is>
-          <t>TP 6H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E44" s="28" t="n"/>
@@ -12962,10 +12890,14 @@
     <row r="45">
       <c r="A45" s="28" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B45" s="28" t="n"/>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B45" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C45" s="28" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -12994,22 +12926,14 @@
     <row r="46">
       <c r="A46" s="28" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B46" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C46" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B46" s="28" t="n"/>
+      <c r="C46" s="28" t="n"/>
       <c r="D46" s="28" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E46" s="28" t="n"/>
@@ -13030,7 +12954,7 @@
     <row r="47">
       <c r="A47" s="28" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B47" s="28" t="n"/>
@@ -13058,7 +12982,7 @@
     <row r="48">
       <c r="A48" s="28" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B48" s="28" t="n"/>
@@ -13086,16 +13010,12 @@
     <row r="49">
       <c r="A49" s="28" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B49" s="28" t="n"/>
       <c r="C49" s="28" t="n"/>
-      <c r="D49" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D49" s="28" t="n"/>
       <c r="E49" s="28" t="n"/>
       <c r="F49" s="28" t="n"/>
       <c r="G49" s="28" t="n"/>
@@ -13112,11 +13032,7 @@
       <c r="R49" s="28" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="28" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A50" s="28" t="n"/>
       <c r="B50" s="28" t="n"/>
       <c r="C50" s="28" t="n"/>
       <c r="D50" s="28" t="n"/>
@@ -16492,15 +16408,15 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="28" t="n"/>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -16520,16 +16436,16 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B36" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -16548,16 +16464,16 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -16576,16 +16492,12 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -16602,18 +16514,10 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -16630,11 +16534,7 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
@@ -18330,11 +18230,7 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="inlineStr">
         <is>
@@ -18362,11 +18258,7 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="B36" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="inlineStr">
         <is>
@@ -18426,7 +18318,7 @@
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="28" t="n"/>
@@ -20315,11 +20207,7 @@
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="B39" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="inlineStr">
         <is>
@@ -20432,11 +20320,7 @@
         </is>
       </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
@@ -23948,7 +23832,7 @@
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="28" t="n"/>
@@ -23977,7 +23861,7 @@
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="28" t="n"/>
@@ -25697,15 +25581,15 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -25725,7 +25609,7 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B36" s="29" t="inlineStr">
@@ -25757,14 +25641,10 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -25789,7 +25669,7 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B38" s="28" t="n"/>
@@ -25798,7 +25678,11 @@
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -25817,16 +25701,16 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D39" s="28" t="n"/>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -25843,17 +25727,9 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -25871,17 +25747,9 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -25899,22 +25767,10 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D42" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="28" t="n"/>
+      <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -25931,18 +25787,10 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -3341,16 +3341,16 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -3367,17 +3367,9 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3395,17 +3387,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -3423,17 +3407,9 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -3451,17 +3427,9 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -3479,22 +3447,10 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D41" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C41" s="28" t="n"/>
+      <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -5164,7 +5120,7 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B35" s="29" t="n"/>
@@ -5190,18 +5146,10 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -5218,18 +5166,10 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -5246,18 +5186,10 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -5274,18 +5206,10 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -5302,18 +5226,10 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -5330,18 +5246,10 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -5358,18 +5266,10 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -5386,18 +5286,10 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -7027,7 +6919,7 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B35" s="29" t="n"/>
@@ -7053,17 +6945,9 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -7081,17 +6965,9 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -7109,17 +6985,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -7137,17 +7005,9 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -7165,17 +7025,9 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -7193,17 +7045,9 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -7221,17 +7065,9 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="28" t="n"/>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -8882,16 +8718,16 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -8908,17 +8744,9 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -8936,17 +8764,9 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -8964,17 +8784,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -8992,18 +8804,10 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -12578,15 +12382,19 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="28" t="n"/>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -12606,7 +12414,7 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B36" s="29" t="inlineStr">
@@ -12638,19 +12446,15 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B37" s="29" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12670,24 +12474,12 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B38" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="n"/>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -12706,7 +12498,7 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B39" s="28" t="inlineStr">
@@ -12714,16 +12506,8 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -12742,7 +12526,7 @@
     <row r="40">
       <c r="A40" s="28" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B40" s="28" t="inlineStr">
@@ -12750,11 +12534,7 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C40" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -12774,20 +12554,16 @@
     <row r="41">
       <c r="A41" s="28" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B41" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D41" s="28" t="n"/>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="n"/>
+      <c r="C41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -12806,7 +12582,7 @@
     <row r="42">
       <c r="A42" s="28" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B42" s="28" t="n"/>
@@ -12815,7 +12591,11 @@
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D42" s="28" t="n"/>
+      <c r="D42" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
       <c r="G42" s="28" t="n"/>
@@ -12834,16 +12614,16 @@
     <row r="43">
       <c r="A43" s="28" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B43" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
+      <c r="D43" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>
       <c r="G43" s="28" t="n"/>
@@ -12862,16 +12642,12 @@
     <row r="44">
       <c r="A44" s="28" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="28" t="n"/>
       <c r="E44" s="28" t="n"/>
       <c r="F44" s="28" t="n"/>
       <c r="G44" s="28" t="n"/>
@@ -12888,26 +12664,10 @@
       <c r="R44" s="28" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B45" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C45" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D45" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="A45" s="28" t="n"/>
+      <c r="B45" s="28" t="n"/>
+      <c r="C45" s="28" t="n"/>
+      <c r="D45" s="28" t="n"/>
       <c r="E45" s="28" t="n"/>
       <c r="F45" s="28" t="n"/>
       <c r="G45" s="28" t="n"/>
@@ -12924,18 +12684,10 @@
       <c r="R45" s="28" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A46" s="28" t="n"/>
       <c r="B46" s="28" t="n"/>
       <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D46" s="28" t="n"/>
       <c r="E46" s="28" t="n"/>
       <c r="F46" s="28" t="n"/>
       <c r="G46" s="28" t="n"/>
@@ -12952,18 +12704,10 @@
       <c r="R46" s="28" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A47" s="28" t="n"/>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D47" s="28" t="n"/>
       <c r="E47" s="28" t="n"/>
       <c r="F47" s="28" t="n"/>
       <c r="G47" s="28" t="n"/>
@@ -12980,18 +12724,10 @@
       <c r="R47" s="28" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A48" s="28" t="n"/>
       <c r="B48" s="28" t="n"/>
       <c r="C48" s="28" t="n"/>
-      <c r="D48" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D48" s="28" t="n"/>
       <c r="E48" s="28" t="n"/>
       <c r="F48" s="28" t="n"/>
       <c r="G48" s="28" t="n"/>
@@ -13008,11 +12744,7 @@
       <c r="R48" s="28" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="28" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A49" s="28" t="n"/>
       <c r="B49" s="28" t="n"/>
       <c r="C49" s="28" t="n"/>
       <c r="D49" s="28" t="n"/>
@@ -14610,11 +14342,7 @@
         </is>
       </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -14668,7 +14396,7 @@
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="28" t="n"/>
@@ -16408,16 +16136,16 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -16436,16 +16164,12 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -16462,18 +16186,10 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -16490,11 +16206,7 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
@@ -18225,18 +17937,10 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="28" t="n"/>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -18253,18 +17957,10 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -18281,18 +17977,10 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -18309,18 +17997,10 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -18337,17 +18017,9 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -20084,7 +19756,7 @@
     <row r="35">
       <c r="A35" s="28" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B35" s="29" t="inlineStr">
@@ -20112,7 +19784,7 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B36" s="29" t="inlineStr">
@@ -20140,7 +19812,7 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="29" t="inlineStr">
@@ -20151,7 +19823,7 @@
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E37" s="28" t="n"/>
@@ -20172,18 +19844,14 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B38" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="28" t="n"/>
@@ -20204,16 +19872,16 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -20232,16 +19900,12 @@
     <row r="40">
       <c r="A40" s="28" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -20258,17 +19922,9 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -20286,17 +19942,9 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C42" s="28" t="n"/>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -20314,11 +19962,7 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
@@ -23748,7 +23392,7 @@
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="28" t="n"/>
@@ -23770,13 +23414,13 @@
     <row r="36">
       <c r="A36" s="28" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="28" t="n"/>
@@ -23798,16 +23442,16 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -23824,17 +23468,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -23852,18 +23488,10 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -23880,18 +23508,10 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -25617,11 +25237,7 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -25641,7 +25257,7 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="29" t="n"/>
@@ -25669,15 +25285,11 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="inlineStr">
         <is>
           <t>TP 2H</t>
@@ -25699,18 +25311,10 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -12974,7 +12974,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -12989,16 +12993,20 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>9</v>
+      </c>
       <c r="M56" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="N56" s="21" t="n"/>
+        <v>60</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>152</v>
+      </c>
       <c r="O56" s="24" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="P56" s="22" t="n">
-        <v>34.5</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="23" t="n">
         <v>43</v>
@@ -13008,7 +13016,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="n"/>
+      <c r="A57" s="68" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
@@ -13023,16 +13035,20 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n"/>
+      <c r="L57" s="21" t="n">
+        <v>9</v>
+      </c>
       <c r="M57" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="N57" s="21" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="N57" s="21" t="n">
+        <v>76</v>
+      </c>
       <c r="O57" s="24" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P57" s="22" t="n">
-        <v>34.5</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="23" t="n">
         <v>43</v>
@@ -13042,7 +13058,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
       <c r="B58" s="66" t="n"/>
       <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
@@ -13058,11 +13078,17 @@
         <v>0</v>
       </c>
       <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n"/>
-      <c r="N58" s="21" t="n"/>
-      <c r="O58" s="21" t="n"/>
+      <c r="M58" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="N58" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="O58" s="21" t="n">
+        <v>38</v>
+      </c>
       <c r="P58" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="23" t="n">
         <v>0</v>
@@ -14853,7 +14879,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -14868,16 +14898,20 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>6</v>
+      </c>
       <c r="M56" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="N56" s="21" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>16</v>
+      </c>
       <c r="O56" s="24" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P56" s="22" t="n">
-        <v>34.5</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="23" t="n">
         <v>43</v>
@@ -14887,7 +14921,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="n"/>
+      <c r="A57" s="68" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
@@ -14904,14 +14942,16 @@
       </c>
       <c r="L57" s="21" t="n"/>
       <c r="M57" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="N57" s="21" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="N57" s="21" t="n">
+        <v>16</v>
+      </c>
       <c r="O57" s="24" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="P57" s="22" t="n">
-        <v>34.5</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="23" t="n">
         <v>43</v>
@@ -20312,7 +20352,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -20327,16 +20371,20 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>5</v>
+      </c>
       <c r="M56" s="24" t="n">
+        <v>36</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>40</v>
+      </c>
+      <c r="O56" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n">
-        <v>23</v>
-      </c>
       <c r="P56" s="22" t="n">
-        <v>34.5</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="23" t="n">
         <v>43</v>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -7,19 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R1.01 Initiation au développement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R1.02 Développement d'interfaces web" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R1.03 Introduction à l'architecture des ordinateurs" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R1.04 Introduction aux systèmes d'exploitation, à leur fonctionnement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R1.05 Introduction aux bases de données et SQL" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R1.06 Mathématiques discrètes" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R1.07 Outils mathématiques fondamentaux" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R1.08 Introduction à la gestion des organisations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R1.09 Introduction à l'économie durable et numérique" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R1.10 Anglais technique" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R1.11 Bases de la communication" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R1.12 PPP" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R1.L.1 Méthodologie du travail universitaire" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R1.01 Initiation au développeme" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R1.02 Développement d'interface" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R1.03 Introduction à l'architec" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R1.04 Introduction aux systèmes" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R1.05 Introduction aux bases de" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R1.07 Outils mathématiques fond" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R1.08 Introduction à la gestion" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R1.09 Introduction à l'économie" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R1.10 Anglais technique" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R1.11 Bases de la communication" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R1.12 PPP" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R1.L.1 Méthodologie du travail " sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -2527,7 +2526,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R1.09 Introduction à l'économie durable et numérique</t>
+          <t>R1.10 Anglais technique</t>
         </is>
       </c>
       <c r="E2" s="27" t="n"/>
@@ -2538,7 +2537,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Christine MAKSSOUD</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -2612,13 +2611,13 @@
     <row r="5">
       <c r="A5" s="27" t="n"/>
       <c r="B5" s="27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" s="27" t="n"/>
       <c r="F5" s="27" t="n"/>
@@ -3275,21 +3274,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3307,17 +3294,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3335,17 +3314,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3363,18 +3334,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -4322,7 +4285,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R1.10 Anglais technique</t>
+          <t>R1.11 Bases de la communication</t>
         </is>
       </c>
       <c r="E2" s="27" t="n"/>
@@ -4333,7 +4296,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>Alexandra SALOU</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -4410,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E5" s="27" t="n"/>
       <c r="F5" s="27" t="n"/>
@@ -5070,18 +5033,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5098,18 +5053,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5126,18 +5073,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5154,18 +5093,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5182,18 +5113,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -6121,7 +6044,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R1.11 Bases de la communication</t>
+          <t>R1.12 PPP</t>
         </is>
       </c>
       <c r="E2" s="27" t="n"/>
@@ -6209,10 +6132,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="27" t="n"/>
       <c r="F5" s="27" t="n"/>
@@ -6869,17 +6792,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -6897,17 +6812,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6925,17 +6832,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6953,17 +6852,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -7912,1773 +7803,6 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R1.12 PPP</t>
-        </is>
-      </c>
-      <c r="E2" s="27" t="n"/>
-      <c r="F2" s="36" t="inlineStr">
-        <is>
-          <t>Responsable</t>
-        </is>
-      </c>
-      <c r="G2" s="27" t="inlineStr">
-        <is>
-          <t>Alexandra SALOU</t>
-        </is>
-      </c>
-      <c r="H2" s="27" t="n"/>
-      <c r="I2" s="27" t="n"/>
-      <c r="J2" s="27" t="n"/>
-      <c r="K2" s="27" t="n"/>
-      <c r="L2" s="27" t="n"/>
-      <c r="M2" s="27" t="n"/>
-      <c r="N2" s="27" t="n"/>
-      <c r="O2" s="27" t="n"/>
-      <c r="P2" s="27" t="n"/>
-      <c r="Q2" s="27" t="n"/>
-      <c r="R2" s="27" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="n"/>
-      <c r="B3" s="27" t="n"/>
-      <c r="C3" s="27" t="n"/>
-      <c r="D3" s="27" t="n"/>
-      <c r="E3" s="27" t="n"/>
-      <c r="F3" s="27" t="n"/>
-      <c r="G3" s="27" t="n"/>
-      <c r="H3" s="27" t="n"/>
-      <c r="I3" s="27" t="n"/>
-      <c r="J3" s="27" t="n"/>
-      <c r="K3" s="27" t="n"/>
-      <c r="L3" s="27" t="n"/>
-      <c r="M3" s="27" t="n"/>
-      <c r="N3" s="27" t="n"/>
-      <c r="O3" s="27" t="n"/>
-      <c r="P3" s="27" t="n"/>
-      <c r="Q3" s="27" t="n"/>
-      <c r="R3" s="27" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="36" t="inlineStr">
-        <is>
-          <t>Maquette</t>
-        </is>
-      </c>
-      <c r="B4" s="28" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="C4" s="28" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="D4" s="28" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="E4" s="27" t="n"/>
-      <c r="F4" s="27" t="n"/>
-      <c r="G4" s="27" t="n"/>
-      <c r="H4" s="27" t="n"/>
-      <c r="I4" s="27" t="n"/>
-      <c r="J4" s="27" t="n"/>
-      <c r="K4" s="27" t="n"/>
-      <c r="L4" s="27" t="n"/>
-      <c r="M4" s="27" t="n"/>
-      <c r="N4" s="27" t="n"/>
-      <c r="O4" s="27" t="n"/>
-      <c r="P4" s="27" t="n"/>
-      <c r="Q4" s="27" t="n"/>
-      <c r="R4" s="27" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="27" t="n"/>
-      <c r="B5" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="27" t="n"/>
-      <c r="F5" s="27" t="n"/>
-      <c r="G5" s="27" t="n"/>
-      <c r="H5" s="27" t="n"/>
-      <c r="I5" s="27" t="n"/>
-      <c r="J5" s="27" t="n"/>
-      <c r="K5" s="27" t="n"/>
-      <c r="L5" s="27" t="n"/>
-      <c r="M5" s="27" t="n"/>
-      <c r="N5" s="27" t="n"/>
-      <c r="O5" s="27" t="n"/>
-      <c r="P5" s="27" t="n"/>
-      <c r="Q5" s="27" t="n"/>
-      <c r="R5" s="27" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="27" t="n"/>
-      <c r="B6" s="27" t="n"/>
-      <c r="C6" s="27" t="n"/>
-      <c r="D6" s="27" t="n"/>
-      <c r="E6" s="27" t="n"/>
-      <c r="F6" s="27" t="n"/>
-      <c r="G6" s="27" t="n"/>
-      <c r="H6" s="27" t="n"/>
-      <c r="I6" s="27" t="n"/>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="27" t="n"/>
-      <c r="L6" s="27" t="n"/>
-      <c r="M6" s="27" t="n"/>
-      <c r="N6" s="27" t="n"/>
-      <c r="O6" s="27" t="n"/>
-      <c r="P6" s="27" t="n"/>
-      <c r="Q6" s="27" t="n"/>
-      <c r="R6" s="27" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="36" t="inlineStr">
-        <is>
-          <t>Intervenants</t>
-        </is>
-      </c>
-      <c r="B7" s="28" t="inlineStr">
-        <is>
-          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
-        </is>
-      </c>
-      <c r="M7" s="27" t="n"/>
-      <c r="N7" s="27" t="n"/>
-      <c r="O7" s="27" t="n"/>
-      <c r="P7" s="27" t="n"/>
-      <c r="Q7" s="27" t="n"/>
-      <c r="R7" s="27" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="28" t="n"/>
-      <c r="C8" s="27" t="n"/>
-      <c r="D8" s="27" t="n"/>
-      <c r="E8" s="27" t="n"/>
-      <c r="F8" s="27" t="n"/>
-      <c r="G8" s="27" t="n"/>
-      <c r="H8" s="27" t="n"/>
-      <c r="I8" s="27" t="n"/>
-      <c r="J8" s="27" t="n"/>
-      <c r="K8" s="27" t="n"/>
-      <c r="L8" s="27" t="n"/>
-      <c r="M8" s="27" t="n"/>
-      <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="n"/>
-      <c r="P8" s="27" t="n"/>
-      <c r="Q8" s="27" t="n"/>
-      <c r="R8" s="27" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="28" t="n"/>
-      <c r="C9" s="27" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
-      <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="n"/>
-      <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="27" t="n"/>
-      <c r="Q9" s="27" t="n"/>
-      <c r="R9" s="27" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="28" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="n"/>
-      <c r="L10" s="27" t="n"/>
-      <c r="M10" s="27" t="n"/>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="27" t="n"/>
-      <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
-      <c r="H11" s="27" t="n"/>
-      <c r="I11" s="27" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
-      <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="n"/>
-      <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="27" t="n"/>
-      <c r="R11" s="27" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="n"/>
-      <c r="B12" s="27" t="n"/>
-      <c r="C12" s="27" t="n"/>
-      <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="n"/>
-      <c r="H12" s="27" t="n"/>
-      <c r="I12" s="27" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="n"/>
-      <c r="M12" s="27" t="n"/>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="27" t="n"/>
-    </row>
-    <row r="13" ht="29" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Nombre de
-Groupes</t>
-        </is>
-      </c>
-      <c r="C13" s="27" t="n"/>
-      <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="n"/>
-      <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="27" t="n"/>
-      <c r="L13" s="27" t="n"/>
-      <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n"/>
-      <c r="O13" s="27" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="27" t="n"/>
-      <c r="R13" s="27" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="27" t="n"/>
-      <c r="D14" s="29" t="inlineStr">
-        <is>
-          <t>Possibilité de changer de groupe de TDs au fil du module</t>
-        </is>
-      </c>
-      <c r="E14" s="57" t="n"/>
-      <c r="F14" s="57" t="n"/>
-      <c r="G14" s="57" t="n"/>
-      <c r="H14" s="57" t="n"/>
-      <c r="I14" s="31" t="inlineStr">
-        <is>
-          <t>si besoin</t>
-        </is>
-      </c>
-      <c r="J14" s="58" t="n"/>
-      <c r="K14" s="27" t="n"/>
-      <c r="L14" s="27" t="n"/>
-      <c r="M14" s="27" t="n"/>
-      <c r="N14" s="27" t="n"/>
-      <c r="O14" s="27" t="n"/>
-      <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="27" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="27" t="n"/>
-      <c r="D15" s="32" t="inlineStr">
-        <is>
-          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
-        </is>
-      </c>
-      <c r="E15" s="59" t="n"/>
-      <c r="F15" s="59" t="n"/>
-      <c r="G15" s="59" t="n"/>
-      <c r="H15" s="59" t="n"/>
-      <c r="I15" s="26" t="inlineStr">
-        <is>
-          <t>Au choix</t>
-        </is>
-      </c>
-      <c r="J15" s="60" t="n"/>
-      <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
-      <c r="O15" s="27" t="n"/>
-      <c r="P15" s="27" t="n"/>
-      <c r="Q15" s="27" t="n"/>
-      <c r="R15" s="27" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="27" t="n"/>
-      <c r="D16" s="27" t="n"/>
-      <c r="E16" s="27" t="n"/>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="27" t="n"/>
-      <c r="H16" s="27" t="n"/>
-      <c r="I16" s="27" t="n"/>
-      <c r="J16" s="27" t="n"/>
-      <c r="K16" s="27" t="n"/>
-      <c r="L16" s="27" t="n"/>
-      <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="n"/>
-      <c r="P16" s="27" t="n"/>
-      <c r="Q16" s="27" t="n"/>
-      <c r="R16" s="27" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="n"/>
-      <c r="C17" s="27" t="n"/>
-      <c r="D17" s="27" t="n"/>
-      <c r="E17" s="27" t="n"/>
-      <c r="F17" s="27" t="n"/>
-      <c r="G17" s="27" t="n"/>
-      <c r="H17" s="27" t="n"/>
-      <c r="I17" s="27" t="n"/>
-      <c r="J17" s="27" t="n"/>
-      <c r="K17" s="27" t="n"/>
-      <c r="L17" s="27" t="n"/>
-      <c r="M17" s="27" t="n"/>
-      <c r="N17" s="27" t="n"/>
-      <c r="O17" s="27" t="n"/>
-      <c r="P17" s="27" t="n"/>
-      <c r="Q17" s="27" t="n"/>
-      <c r="R17" s="27" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="27" t="n"/>
-      <c r="D18" s="27" t="n"/>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="n"/>
-      <c r="G18" s="27" t="n"/>
-      <c r="H18" s="27" t="n"/>
-      <c r="I18" s="27" t="n"/>
-      <c r="J18" s="27" t="n"/>
-      <c r="K18" s="27" t="n"/>
-      <c r="L18" s="27" t="n"/>
-      <c r="M18" s="27" t="n"/>
-      <c r="N18" s="27" t="n"/>
-      <c r="O18" s="27" t="n"/>
-      <c r="P18" s="27" t="n"/>
-      <c r="Q18" s="27" t="n"/>
-      <c r="R18" s="27" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="37" t="inlineStr">
-        <is>
-          <t>Test(s)</t>
-        </is>
-      </c>
-      <c r="E19" s="34" t="n"/>
-      <c r="F19" s="58" t="n"/>
-      <c r="G19" s="27" t="n"/>
-      <c r="H19" s="27" t="n"/>
-      <c r="I19" s="27" t="n"/>
-      <c r="J19" s="27" t="n"/>
-      <c r="K19" s="27" t="n"/>
-      <c r="L19" s="27" t="n"/>
-      <c r="M19" s="27" t="n"/>
-      <c r="N19" s="27" t="n"/>
-      <c r="O19" s="27" t="n"/>
-      <c r="P19" s="27" t="n"/>
-      <c r="Q19" s="27" t="n"/>
-      <c r="R19" s="27" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="27" t="n"/>
-      <c r="D20" s="40" t="inlineStr">
-        <is>
-          <t>Durée</t>
-        </is>
-      </c>
-      <c r="E20" s="35" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="27" t="n"/>
-      <c r="H20" s="27" t="n"/>
-      <c r="I20" s="27" t="n"/>
-      <c r="J20" s="27" t="n"/>
-      <c r="K20" s="27" t="n"/>
-      <c r="L20" s="27" t="n"/>
-      <c r="M20" s="27" t="n"/>
-      <c r="N20" s="27" t="n"/>
-      <c r="O20" s="27" t="n"/>
-      <c r="P20" s="27" t="n"/>
-      <c r="Q20" s="27" t="n"/>
-      <c r="R20" s="27" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
-      <c r="B21" s="10" t="n"/>
-      <c r="C21" s="27" t="n"/>
-      <c r="D21" s="40" t="inlineStr">
-        <is>
-          <t>Salle</t>
-        </is>
-      </c>
-      <c r="E21" s="35" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="27" t="n"/>
-      <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="n"/>
-      <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="n"/>
-      <c r="L21" s="27" t="n"/>
-      <c r="M21" s="27" t="n"/>
-      <c r="N21" s="27" t="n"/>
-      <c r="O21" s="27" t="n"/>
-      <c r="P21" s="27" t="n"/>
-      <c r="Q21" s="27" t="n"/>
-      <c r="R21" s="27" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>TP dédoublés</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="n"/>
-      <c r="C22" s="27" t="n"/>
-      <c r="D22" s="32" t="inlineStr">
-        <is>
-          <t>Payé en</t>
-        </is>
-      </c>
-      <c r="E22" s="26" t="n"/>
-      <c r="F22" s="60" t="n"/>
-      <c r="G22" s="27" t="n"/>
-      <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="n"/>
-      <c r="J22" s="27" t="n"/>
-      <c r="K22" s="27" t="n"/>
-      <c r="L22" s="27" t="n"/>
-      <c r="M22" s="27" t="n"/>
-      <c r="N22" s="27" t="n"/>
-      <c r="O22" s="27" t="n"/>
-      <c r="P22" s="27" t="n"/>
-      <c r="Q22" s="27" t="n"/>
-      <c r="R22" s="27" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
-      <c r="C23" s="27" t="n"/>
-      <c r="D23" s="27" t="n"/>
-      <c r="E23" s="27" t="n"/>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="27" t="n"/>
-      <c r="H23" s="27" t="n"/>
-      <c r="I23" s="27" t="n"/>
-      <c r="J23" s="27" t="n"/>
-      <c r="K23" s="27" t="n"/>
-      <c r="L23" s="27" t="n"/>
-      <c r="M23" s="27" t="n"/>
-      <c r="N23" s="27" t="n"/>
-      <c r="O23" s="27" t="n"/>
-      <c r="P23" s="27" t="n"/>
-      <c r="Q23" s="27" t="n"/>
-      <c r="R23" s="27" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="27" t="n"/>
-      <c r="D24" s="27" t="n"/>
-      <c r="E24" s="27" t="n"/>
-      <c r="F24" s="27" t="n"/>
-      <c r="G24" s="27" t="n"/>
-      <c r="H24" s="27" t="n"/>
-      <c r="I24" s="27" t="n"/>
-      <c r="J24" s="27" t="n"/>
-      <c r="K24" s="27" t="n"/>
-      <c r="L24" s="27" t="n"/>
-      <c r="M24" s="27" t="n"/>
-      <c r="N24" s="27" t="n"/>
-      <c r="O24" s="27" t="n"/>
-      <c r="P24" s="27" t="n"/>
-      <c r="Q24" s="27" t="n"/>
-      <c r="R24" s="27" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="27" t="n"/>
-      <c r="D25" s="27" t="n"/>
-      <c r="G25" s="27" t="n"/>
-      <c r="H25" s="27" t="n"/>
-      <c r="I25" s="27" t="n"/>
-      <c r="J25" s="27" t="n"/>
-      <c r="K25" s="27" t="n"/>
-      <c r="L25" s="27" t="n"/>
-      <c r="M25" s="27" t="n"/>
-      <c r="N25" s="27" t="n"/>
-      <c r="O25" s="27" t="n"/>
-      <c r="P25" s="27" t="n"/>
-      <c r="Q25" s="27" t="n"/>
-      <c r="R25" s="27" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="10" t="n"/>
-      <c r="B26" s="10" t="n"/>
-      <c r="C26" s="27" t="n"/>
-      <c r="D26" s="27" t="n"/>
-      <c r="E26" s="27" t="n"/>
-      <c r="F26" s="27" t="n"/>
-      <c r="G26" s="27" t="n"/>
-      <c r="H26" s="27" t="n"/>
-      <c r="I26" s="27" t="n"/>
-      <c r="J26" s="27" t="n"/>
-      <c r="K26" s="27" t="n"/>
-      <c r="L26" s="27" t="n"/>
-      <c r="M26" s="27" t="n"/>
-      <c r="N26" s="27" t="n"/>
-      <c r="O26" s="27" t="n"/>
-      <c r="P26" s="27" t="n"/>
-      <c r="Q26" s="27" t="n"/>
-      <c r="R26" s="27" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>TP non dédoublés</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n"/>
-      <c r="C27" s="27" t="n"/>
-      <c r="D27" s="37" t="inlineStr">
-        <is>
-          <t>Autres informations :</t>
-        </is>
-      </c>
-      <c r="E27" s="57" t="n"/>
-      <c r="F27" s="33" t="n"/>
-      <c r="G27" s="33" t="n"/>
-      <c r="H27" s="34" t="n"/>
-      <c r="I27" s="27" t="n"/>
-      <c r="J27" s="27" t="n"/>
-      <c r="K27" s="27" t="n"/>
-      <c r="L27" s="27" t="n"/>
-      <c r="M27" s="27" t="n"/>
-      <c r="N27" s="27" t="n"/>
-      <c r="O27" s="27" t="n"/>
-      <c r="P27" s="27" t="n"/>
-      <c r="Q27" s="27" t="n"/>
-      <c r="R27" s="27" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>* tous les intervenants, vactaires compris, surveillent l’examen
-* SN le lundi matin (ou exceptionnellement vendredi AM).
-1ère semaine = vendredi AM</t>
-        </is>
-      </c>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="27" t="n"/>
-      <c r="J28" s="27" t="n"/>
-      <c r="K28" s="27" t="n"/>
-      <c r="L28" s="27" t="n"/>
-      <c r="M28" s="27" t="n"/>
-      <c r="N28" s="27" t="n"/>
-      <c r="O28" s="27" t="n"/>
-      <c r="P28" s="27" t="n"/>
-      <c r="Q28" s="27" t="n"/>
-      <c r="R28" s="27" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="13" t="n"/>
-      <c r="C29" s="27" t="n"/>
-      <c r="D29" s="63" t="n"/>
-      <c r="H29" s="61" t="n"/>
-      <c r="I29" s="27" t="n"/>
-      <c r="J29" s="27" t="n"/>
-      <c r="K29" s="27" t="n"/>
-      <c r="L29" s="27" t="n"/>
-      <c r="M29" s="27" t="n"/>
-      <c r="N29" s="27" t="n"/>
-      <c r="O29" s="27" t="n"/>
-      <c r="P29" s="27" t="n"/>
-      <c r="Q29" s="27" t="n"/>
-      <c r="R29" s="27" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="13" t="n"/>
-      <c r="C30" s="27" t="n"/>
-      <c r="D30" s="63" t="n"/>
-      <c r="H30" s="61" t="n"/>
-      <c r="I30" s="27" t="n"/>
-      <c r="J30" s="27" t="n"/>
-      <c r="K30" s="27" t="n"/>
-      <c r="L30" s="27" t="n"/>
-      <c r="M30" s="27" t="n"/>
-      <c r="N30" s="27" t="n"/>
-      <c r="O30" s="27" t="n"/>
-      <c r="P30" s="27" t="n"/>
-      <c r="Q30" s="27" t="n"/>
-      <c r="R30" s="27" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="10" t="n"/>
-      <c r="B31" s="10" t="n"/>
-      <c r="C31" s="27" t="n"/>
-      <c r="D31" s="64" t="n"/>
-      <c r="E31" s="59" t="n"/>
-      <c r="F31" s="59" t="n"/>
-      <c r="G31" s="59" t="n"/>
-      <c r="H31" s="60" t="n"/>
-      <c r="I31" s="27" t="n"/>
-      <c r="J31" s="27" t="n"/>
-      <c r="K31" s="27" t="n"/>
-      <c r="L31" s="27" t="n"/>
-      <c r="M31" s="27" t="n"/>
-      <c r="N31" s="27" t="n"/>
-      <c r="O31" s="27" t="n"/>
-      <c r="P31" s="27" t="n"/>
-      <c r="Q31" s="27" t="n"/>
-      <c r="R31" s="27" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="27" t="n"/>
-      <c r="B32" s="27" t="n"/>
-      <c r="C32" s="27" t="n"/>
-      <c r="D32" s="27" t="n"/>
-      <c r="E32" s="27" t="n"/>
-      <c r="F32" s="27" t="n"/>
-      <c r="G32" s="27" t="n"/>
-      <c r="H32" s="27" t="n"/>
-      <c r="I32" s="27" t="n"/>
-      <c r="J32" s="27" t="n"/>
-      <c r="K32" s="27" t="n"/>
-      <c r="L32" s="27" t="n"/>
-      <c r="M32" s="27" t="n"/>
-      <c r="N32" s="27" t="n"/>
-      <c r="O32" s="27" t="n"/>
-      <c r="P32" s="27" t="n"/>
-      <c r="Q32" s="27" t="n"/>
-      <c r="R32" s="27" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="36" t="inlineStr">
-        <is>
-          <t>Organisation détaillée</t>
-        </is>
-      </c>
-      <c r="B33" s="28" t="inlineStr">
-        <is>
-          <t>(toutes les informations doivent figurer ici)</t>
-        </is>
-      </c>
-      <c r="C33" s="27" t="n"/>
-      <c r="D33" s="27" t="n"/>
-      <c r="E33" s="27" t="n"/>
-      <c r="F33" s="27" t="n"/>
-      <c r="G33" s="27" t="n"/>
-      <c r="H33" s="27" t="n"/>
-      <c r="I33" s="27" t="n"/>
-      <c r="J33" s="27" t="n"/>
-      <c r="K33" s="27" t="n"/>
-      <c r="L33" s="27" t="n"/>
-      <c r="M33" s="27" t="n"/>
-      <c r="N33" s="27" t="n"/>
-      <c r="O33" s="27" t="n"/>
-      <c r="P33" s="27" t="n"/>
-      <c r="Q33" s="27" t="n"/>
-      <c r="R33" s="27" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="27" t="n"/>
-      <c r="B34" s="28" t="n"/>
-      <c r="C34" s="27" t="n"/>
-      <c r="D34" s="27" t="n"/>
-      <c r="E34" s="27" t="n"/>
-      <c r="F34" s="27" t="n"/>
-      <c r="G34" s="27" t="n"/>
-      <c r="H34" s="27" t="n"/>
-      <c r="I34" s="27" t="n"/>
-      <c r="J34" s="27" t="n"/>
-      <c r="K34" s="27" t="n"/>
-      <c r="L34" s="27" t="n"/>
-      <c r="M34" s="27" t="n"/>
-      <c r="N34" s="27" t="n"/>
-      <c r="O34" s="27" t="n"/>
-      <c r="P34" s="27" t="n"/>
-      <c r="Q34" s="27" t="n"/>
-      <c r="R34" s="27" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
-      <c r="E35" s="27" t="n"/>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="27" t="n"/>
-      <c r="H35" s="27" t="n"/>
-      <c r="I35" s="27" t="n"/>
-      <c r="J35" s="27" t="n"/>
-      <c r="K35" s="27" t="n"/>
-      <c r="L35" s="27" t="n"/>
-      <c r="M35" s="27" t="n"/>
-      <c r="N35" s="27" t="n"/>
-      <c r="O35" s="27" t="n"/>
-      <c r="P35" s="27" t="n"/>
-      <c r="Q35" s="27" t="n"/>
-      <c r="R35" s="27" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
-      <c r="F36" s="27" t="n"/>
-      <c r="G36" s="27" t="n"/>
-      <c r="H36" s="27" t="n"/>
-      <c r="I36" s="27" t="n"/>
-      <c r="J36" s="27" t="n"/>
-      <c r="K36" s="27" t="n"/>
-      <c r="L36" s="27" t="n"/>
-      <c r="M36" s="27" t="n"/>
-      <c r="N36" s="27" t="n"/>
-      <c r="O36" s="27" t="n"/>
-      <c r="P36" s="27" t="n"/>
-      <c r="Q36" s="27" t="n"/>
-      <c r="R36" s="27" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="27" t="n"/>
-      <c r="H37" s="27" t="n"/>
-      <c r="I37" s="27" t="n"/>
-      <c r="J37" s="27" t="n"/>
-      <c r="K37" s="27" t="n"/>
-      <c r="L37" s="27" t="n"/>
-      <c r="M37" s="27" t="n"/>
-      <c r="N37" s="27" t="n"/>
-      <c r="O37" s="27" t="n"/>
-      <c r="P37" s="27" t="n"/>
-      <c r="Q37" s="27" t="n"/>
-      <c r="R37" s="27" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
-      <c r="F38" s="27" t="n"/>
-      <c r="G38" s="27" t="n"/>
-      <c r="H38" s="27" t="n"/>
-      <c r="I38" s="27" t="n"/>
-      <c r="J38" s="27" t="n"/>
-      <c r="K38" s="27" t="n"/>
-      <c r="L38" s="27" t="n"/>
-      <c r="M38" s="27" t="n"/>
-      <c r="N38" s="27" t="n"/>
-      <c r="O38" s="27" t="n"/>
-      <c r="P38" s="27" t="n"/>
-      <c r="Q38" s="27" t="n"/>
-      <c r="R38" s="27" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
-      <c r="F39" s="27" t="n"/>
-      <c r="G39" s="27" t="n"/>
-      <c r="H39" s="27" t="n"/>
-      <c r="I39" s="27" t="n"/>
-      <c r="J39" s="27" t="n"/>
-      <c r="K39" s="27" t="n"/>
-      <c r="L39" s="27" t="n"/>
-      <c r="M39" s="27" t="n"/>
-      <c r="N39" s="27" t="n"/>
-      <c r="O39" s="27" t="n"/>
-      <c r="P39" s="27" t="n"/>
-      <c r="Q39" s="27" t="n"/>
-      <c r="R39" s="27" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
-      <c r="E40" s="27" t="n"/>
-      <c r="F40" s="27" t="n"/>
-      <c r="G40" s="27" t="n"/>
-      <c r="H40" s="27" t="n"/>
-      <c r="I40" s="27" t="n"/>
-      <c r="J40" s="27" t="n"/>
-      <c r="K40" s="27" t="n"/>
-      <c r="L40" s="27" t="n"/>
-      <c r="M40" s="27" t="n"/>
-      <c r="N40" s="27" t="n"/>
-      <c r="O40" s="27" t="n"/>
-      <c r="P40" s="27" t="n"/>
-      <c r="Q40" s="27" t="n"/>
-      <c r="R40" s="27" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
-      <c r="F41" s="27" t="n"/>
-      <c r="G41" s="27" t="n"/>
-      <c r="H41" s="27" t="n"/>
-      <c r="I41" s="27" t="n"/>
-      <c r="J41" s="27" t="n"/>
-      <c r="K41" s="27" t="n"/>
-      <c r="L41" s="27" t="n"/>
-      <c r="M41" s="27" t="n"/>
-      <c r="N41" s="27" t="n"/>
-      <c r="O41" s="27" t="n"/>
-      <c r="P41" s="27" t="n"/>
-      <c r="Q41" s="27" t="n"/>
-      <c r="R41" s="27" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="27" t="n"/>
-      <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
-      <c r="E42" s="27" t="n"/>
-      <c r="F42" s="27" t="n"/>
-      <c r="G42" s="27" t="n"/>
-      <c r="H42" s="27" t="n"/>
-      <c r="I42" s="27" t="n"/>
-      <c r="J42" s="27" t="n"/>
-      <c r="K42" s="27" t="n"/>
-      <c r="L42" s="27" t="n"/>
-      <c r="M42" s="27" t="n"/>
-      <c r="N42" s="27" t="n"/>
-      <c r="O42" s="27" t="n"/>
-      <c r="P42" s="27" t="n"/>
-      <c r="Q42" s="27" t="n"/>
-      <c r="R42" s="27" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="27" t="n"/>
-      <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
-      <c r="F43" s="27" t="n"/>
-      <c r="G43" s="27" t="n"/>
-      <c r="H43" s="27" t="n"/>
-      <c r="I43" s="27" t="n"/>
-      <c r="J43" s="27" t="n"/>
-      <c r="K43" s="27" t="n"/>
-      <c r="L43" s="27" t="n"/>
-      <c r="M43" s="27" t="n"/>
-      <c r="N43" s="27" t="n"/>
-      <c r="O43" s="27" t="n"/>
-      <c r="P43" s="27" t="n"/>
-      <c r="Q43" s="27" t="n"/>
-      <c r="R43" s="27" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="27" t="n"/>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
-      <c r="E44" s="27" t="n"/>
-      <c r="F44" s="27" t="n"/>
-      <c r="G44" s="27" t="n"/>
-      <c r="H44" s="27" t="n"/>
-      <c r="I44" s="27" t="n"/>
-      <c r="J44" s="27" t="n"/>
-      <c r="K44" s="27" t="n"/>
-      <c r="L44" s="27" t="n"/>
-      <c r="M44" s="27" t="n"/>
-      <c r="N44" s="27" t="n"/>
-      <c r="O44" s="27" t="n"/>
-      <c r="P44" s="27" t="n"/>
-      <c r="Q44" s="27" t="n"/>
-      <c r="R44" s="27" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="27" t="n"/>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
-      <c r="E45" s="27" t="n"/>
-      <c r="F45" s="27" t="n"/>
-      <c r="G45" s="27" t="n"/>
-      <c r="H45" s="27" t="n"/>
-      <c r="I45" s="27" t="n"/>
-      <c r="J45" s="27" t="n"/>
-      <c r="K45" s="27" t="n"/>
-      <c r="L45" s="27" t="n"/>
-      <c r="M45" s="27" t="n"/>
-      <c r="N45" s="27" t="n"/>
-      <c r="O45" s="27" t="n"/>
-      <c r="P45" s="27" t="n"/>
-      <c r="Q45" s="27" t="n"/>
-      <c r="R45" s="27" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="27" t="n"/>
-      <c r="B46" s="27" t="n"/>
-      <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
-      <c r="E46" s="27" t="n"/>
-      <c r="F46" s="27" t="n"/>
-      <c r="G46" s="27" t="n"/>
-      <c r="H46" s="27" t="n"/>
-      <c r="I46" s="27" t="n"/>
-      <c r="J46" s="27" t="n"/>
-      <c r="K46" s="27" t="n"/>
-      <c r="L46" s="27" t="n"/>
-      <c r="M46" s="27" t="n"/>
-      <c r="N46" s="27" t="n"/>
-      <c r="O46" s="27" t="n"/>
-      <c r="P46" s="27" t="n"/>
-      <c r="Q46" s="27" t="n"/>
-      <c r="R46" s="27" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="27" t="n"/>
-      <c r="B47" s="27" t="n"/>
-      <c r="C47" s="27" t="n"/>
-      <c r="D47" s="27" t="n"/>
-      <c r="E47" s="27" t="n"/>
-      <c r="F47" s="27" t="n"/>
-      <c r="G47" s="27" t="n"/>
-      <c r="H47" s="27" t="n"/>
-      <c r="I47" s="27" t="n"/>
-      <c r="J47" s="27" t="n"/>
-      <c r="K47" s="27" t="n"/>
-      <c r="L47" s="27" t="n"/>
-      <c r="M47" s="27" t="n"/>
-      <c r="N47" s="27" t="n"/>
-      <c r="O47" s="27" t="n"/>
-      <c r="P47" s="27" t="n"/>
-      <c r="Q47" s="27" t="n"/>
-      <c r="R47" s="27" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="27" t="n"/>
-      <c r="B48" s="27" t="n"/>
-      <c r="C48" s="27" t="n"/>
-      <c r="D48" s="27" t="n"/>
-      <c r="E48" s="27" t="n"/>
-      <c r="F48" s="27" t="n"/>
-      <c r="G48" s="27" t="n"/>
-      <c r="H48" s="27" t="n"/>
-      <c r="I48" s="27" t="n"/>
-      <c r="J48" s="27" t="n"/>
-      <c r="K48" s="27" t="n"/>
-      <c r="L48" s="27" t="n"/>
-      <c r="M48" s="27" t="n"/>
-      <c r="N48" s="27" t="n"/>
-      <c r="O48" s="27" t="n"/>
-      <c r="P48" s="27" t="n"/>
-      <c r="Q48" s="27" t="n"/>
-      <c r="R48" s="27" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="27" t="n"/>
-      <c r="B49" s="27" t="n"/>
-      <c r="C49" s="27" t="n"/>
-      <c r="D49" s="27" t="n"/>
-      <c r="E49" s="27" t="n"/>
-      <c r="F49" s="27" t="n"/>
-      <c r="G49" s="27" t="n"/>
-      <c r="H49" s="27" t="n"/>
-      <c r="I49" s="27" t="n"/>
-      <c r="J49" s="27" t="n"/>
-      <c r="K49" s="27" t="n"/>
-      <c r="L49" s="27" t="n"/>
-      <c r="M49" s="27" t="n"/>
-      <c r="N49" s="27" t="n"/>
-      <c r="O49" s="27" t="n"/>
-      <c r="P49" s="27" t="n"/>
-      <c r="Q49" s="27" t="n"/>
-      <c r="R49" s="27" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="27" t="n"/>
-      <c r="B50" s="27" t="n"/>
-      <c r="C50" s="27" t="n"/>
-      <c r="D50" s="27" t="n"/>
-      <c r="E50" s="27" t="n"/>
-      <c r="F50" s="27" t="n"/>
-      <c r="G50" s="27" t="n"/>
-      <c r="H50" s="27" t="n"/>
-      <c r="I50" s="27" t="n"/>
-      <c r="J50" s="27" t="n"/>
-      <c r="K50" s="27" t="n"/>
-      <c r="L50" s="27" t="n"/>
-      <c r="M50" s="27" t="n"/>
-      <c r="N50" s="27" t="n"/>
-      <c r="O50" s="27" t="n"/>
-      <c r="P50" s="27" t="n"/>
-      <c r="Q50" s="27" t="n"/>
-      <c r="R50" s="27" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="27" t="n"/>
-      <c r="B51" s="27" t="n"/>
-      <c r="C51" s="27" t="n"/>
-      <c r="D51" s="28" t="n"/>
-      <c r="E51" s="27" t="n"/>
-      <c r="F51" s="27" t="n"/>
-      <c r="G51" s="27" t="n"/>
-      <c r="H51" s="27" t="n"/>
-      <c r="I51" s="27" t="n"/>
-      <c r="J51" s="27" t="n"/>
-      <c r="K51" s="27" t="n"/>
-      <c r="L51" s="27" t="n"/>
-      <c r="M51" s="27" t="n"/>
-      <c r="N51" s="27" t="n"/>
-      <c r="O51" s="27" t="n"/>
-      <c r="P51" s="27" t="n"/>
-      <c r="Q51" s="27" t="n"/>
-      <c r="R51" s="27" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="27" t="n"/>
-      <c r="B52" s="27" t="n"/>
-      <c r="C52" s="27" t="n"/>
-      <c r="D52" s="27" t="n"/>
-      <c r="E52" s="27" t="n"/>
-      <c r="F52" s="27" t="n"/>
-      <c r="G52" s="27" t="n"/>
-      <c r="H52" s="27" t="n"/>
-      <c r="I52" s="27" t="n"/>
-      <c r="J52" s="27" t="n"/>
-      <c r="K52" s="27" t="n"/>
-      <c r="L52" s="27" t="n"/>
-      <c r="M52" s="27" t="n"/>
-      <c r="N52" s="27" t="n"/>
-      <c r="O52" s="27" t="n"/>
-      <c r="P52" s="27" t="n"/>
-      <c r="Q52" s="27" t="n"/>
-      <c r="R52" s="27" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="36" t="inlineStr">
-        <is>
-          <t>Service prévisionnel vacataires</t>
-        </is>
-      </c>
-      <c r="C53" s="28" t="inlineStr">
-        <is>
-          <t>(Ne pas oublier d’inclure les tests)</t>
-        </is>
-      </c>
-      <c r="D53" s="27" t="n"/>
-      <c r="E53" s="27" t="n"/>
-      <c r="F53" s="27" t="n"/>
-      <c r="G53" s="27" t="n"/>
-      <c r="H53" s="27" t="n"/>
-      <c r="I53" s="27" t="n"/>
-      <c r="J53" s="27" t="n"/>
-      <c r="K53" s="27" t="n"/>
-      <c r="L53" s="27" t="n"/>
-      <c r="M53" s="27" t="n"/>
-      <c r="N53" s="27" t="n"/>
-      <c r="O53" s="27" t="n"/>
-      <c r="P53" s="27" t="n"/>
-      <c r="Q53" s="27" t="n"/>
-      <c r="R53" s="27" t="n"/>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="19" t="inlineStr">
-        <is>
-          <t>Nom</t>
-        </is>
-      </c>
-      <c r="B54" s="58" t="n"/>
-      <c r="C54" s="19" t="inlineStr">
-        <is>
-          <t>BUT 1 / BUT 2 / BUT 3</t>
-        </is>
-      </c>
-      <c r="D54" s="19" t="inlineStr">
-        <is>
-          <t>Parcours A Parcours B</t>
-        </is>
-      </c>
-      <c r="E54" s="20" t="inlineStr">
-        <is>
-          <t>FI
-FA</t>
-        </is>
-      </c>
-      <c r="F54" s="20" t="inlineStr">
-        <is>
-          <t>Nombre d'heures prévues
-de septembre à décembre 2022</t>
-        </is>
-      </c>
-      <c r="G54" s="65" t="n"/>
-      <c r="H54" s="65" t="n"/>
-      <c r="I54" s="65" t="n"/>
-      <c r="J54" s="65" t="n"/>
-      <c r="K54" s="66" t="n"/>
-      <c r="L54" s="20" t="inlineStr">
-        <is>
-          <t>Nombre d'heures prévues
-de janvier à août 2023</t>
-        </is>
-      </c>
-      <c r="M54" s="65" t="n"/>
-      <c r="N54" s="65" t="n"/>
-      <c r="O54" s="65" t="n"/>
-      <c r="P54" s="65" t="n"/>
-      <c r="Q54" s="66" t="n"/>
-      <c r="R54" s="27" t="n"/>
-    </row>
-    <row r="55" ht="68" customHeight="1">
-      <c r="A55" s="64" t="n"/>
-      <c r="B55" s="60" t="n"/>
-      <c r="C55" s="67" t="n"/>
-      <c r="D55" s="67" t="n"/>
-      <c r="E55" s="67" t="n"/>
-      <c r="F55" s="19" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="G55" s="19" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="H55" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(1/2 groupe)</t>
-        </is>
-      </c>
-      <c r="I55" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(non dédoublé)</t>
-        </is>
-      </c>
-      <c r="J55" s="19" t="inlineStr">
-        <is>
-          <t>TP à déclarer ARES</t>
-        </is>
-      </c>
-      <c r="K55" s="19" t="inlineStr">
-        <is>
-          <t>Total en HETD</t>
-        </is>
-      </c>
-      <c r="L55" s="19" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="M55" s="19" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="N55" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(1/2 groupe)</t>
-        </is>
-      </c>
-      <c r="O55" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(non dédoublé)</t>
-        </is>
-      </c>
-      <c r="P55" s="19" t="inlineStr">
-        <is>
-          <t>TP à déclarer ARES</t>
-        </is>
-      </c>
-      <c r="Q55" s="19" t="inlineStr">
-        <is>
-          <t>Total en HETD</t>
-        </is>
-      </c>
-      <c r="R55" s="19" t="inlineStr">
-        <is>
-          <t>Total en HETD</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="24" t="n"/>
-      <c r="B56" s="66" t="n"/>
-      <c r="C56" s="21" t="n"/>
-      <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
-      <c r="F56" s="21" t="n"/>
-      <c r="G56" s="21" t="n"/>
-      <c r="H56" s="21" t="n"/>
-      <c r="I56" s="21" t="n"/>
-      <c r="J56" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
-      <c r="P56" s="22" t="n"/>
-      <c r="Q56" s="23" t="n"/>
-      <c r="R56" s="23" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="68" t="n"/>
-      <c r="B57" s="66" t="n"/>
-      <c r="C57" s="21" t="n"/>
-      <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
-      <c r="F57" s="21" t="n"/>
-      <c r="G57" s="21" t="n"/>
-      <c r="H57" s="21" t="n"/>
-      <c r="I57" s="21" t="n"/>
-      <c r="J57" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="21" t="n"/>
-      <c r="M57" s="24" t="n"/>
-      <c r="N57" s="21" t="n"/>
-      <c r="O57" s="24" t="n"/>
-      <c r="P57" s="22" t="n"/>
-      <c r="Q57" s="23" t="n"/>
-      <c r="R57" s="23" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="66" t="n"/>
-      <c r="C58" s="21" t="n"/>
-      <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
-      <c r="F58" s="21" t="n"/>
-      <c r="G58" s="21" t="n"/>
-      <c r="H58" s="21" t="n"/>
-      <c r="I58" s="21" t="n"/>
-      <c r="J58" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n"/>
-      <c r="N58" s="21" t="n"/>
-      <c r="O58" s="21" t="n"/>
-      <c r="P58" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="66" t="n"/>
-      <c r="C59" s="21" t="n"/>
-      <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
-      <c r="F59" s="21" t="n"/>
-      <c r="G59" s="21" t="n"/>
-      <c r="H59" s="21" t="n"/>
-      <c r="I59" s="21" t="n"/>
-      <c r="J59" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="21" t="n"/>
-      <c r="M59" s="21" t="n"/>
-      <c r="N59" s="21" t="n"/>
-      <c r="O59" s="21" t="n"/>
-      <c r="P59" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="27" t="n"/>
-      <c r="B60" s="27" t="n"/>
-      <c r="C60" s="27" t="n"/>
-      <c r="D60" s="27" t="n"/>
-      <c r="E60" s="27" t="n"/>
-      <c r="F60" s="27" t="n"/>
-      <c r="G60" s="27" t="n"/>
-      <c r="H60" s="27" t="n"/>
-      <c r="I60" s="27" t="n"/>
-      <c r="J60" s="27" t="n"/>
-      <c r="K60" s="27" t="n"/>
-      <c r="L60" s="27" t="n"/>
-      <c r="M60" s="27" t="n"/>
-      <c r="N60" s="27" t="n"/>
-      <c r="O60" s="27" t="n"/>
-      <c r="P60" s="27" t="n"/>
-      <c r="Q60" s="27" t="n"/>
-      <c r="R60" s="27" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="27" t="n"/>
-      <c r="B61" s="27" t="n"/>
-      <c r="C61" s="27" t="n"/>
-      <c r="D61" s="27" t="n"/>
-      <c r="E61" s="27" t="n"/>
-      <c r="F61" s="27" t="n"/>
-      <c r="G61" s="27" t="n"/>
-      <c r="H61" s="27" t="n"/>
-      <c r="I61" s="27" t="n"/>
-      <c r="J61" s="27" t="n"/>
-      <c r="K61" s="27" t="n"/>
-      <c r="L61" s="27" t="n"/>
-      <c r="M61" s="27" t="n"/>
-      <c r="N61" s="27" t="n"/>
-      <c r="O61" s="27" t="n"/>
-      <c r="P61" s="27" t="n"/>
-      <c r="Q61" s="27" t="n"/>
-      <c r="R61" s="27" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="36" t="inlineStr">
-        <is>
-          <t>Service prévisionnel titulaires</t>
-        </is>
-      </c>
-      <c r="C62" s="28" t="inlineStr">
-        <is>
-          <t>(Ne pas oublier d’inclure les tests)</t>
-        </is>
-      </c>
-      <c r="D62" s="27" t="n"/>
-      <c r="E62" s="27" t="n"/>
-      <c r="F62" s="27" t="n"/>
-      <c r="G62" s="27" t="n"/>
-      <c r="H62" s="27" t="n"/>
-      <c r="I62" s="27" t="n"/>
-      <c r="J62" s="27" t="n"/>
-      <c r="K62" s="27" t="n"/>
-      <c r="L62" s="27" t="n"/>
-      <c r="M62" s="27" t="n"/>
-      <c r="N62" s="27" t="n"/>
-      <c r="O62" s="27" t="n"/>
-      <c r="P62" s="27" t="n"/>
-      <c r="Q62" s="27" t="n"/>
-      <c r="R62" s="27" t="n"/>
-    </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="19" t="inlineStr">
-        <is>
-          <t>Nom</t>
-        </is>
-      </c>
-      <c r="B63" s="58" t="n"/>
-      <c r="C63" s="19" t="inlineStr">
-        <is>
-          <t>BUT 1 / BUT 2 / BUT 3</t>
-        </is>
-      </c>
-      <c r="D63" s="19" t="inlineStr">
-        <is>
-          <t>Parcours A Parcours B</t>
-        </is>
-      </c>
-      <c r="E63" s="20" t="inlineStr">
-        <is>
-          <t>FI
-FA</t>
-        </is>
-      </c>
-      <c r="F63" s="20" t="inlineStr">
-        <is>
-          <t>Nombre d'heures prévues
-de septembre à décembre 2022</t>
-        </is>
-      </c>
-      <c r="G63" s="65" t="n"/>
-      <c r="H63" s="65" t="n"/>
-      <c r="I63" s="65" t="n"/>
-      <c r="J63" s="65" t="n"/>
-      <c r="K63" s="66" t="n"/>
-      <c r="L63" s="20" t="inlineStr">
-        <is>
-          <t>Nombre d'heures prévues
-de janvier à août 2023</t>
-        </is>
-      </c>
-      <c r="M63" s="65" t="n"/>
-      <c r="N63" s="65" t="n"/>
-      <c r="O63" s="65" t="n"/>
-      <c r="P63" s="65" t="n"/>
-      <c r="Q63" s="66" t="n"/>
-      <c r="R63" s="27" t="n"/>
-    </row>
-    <row r="64" ht="68" customHeight="1">
-      <c r="A64" s="64" t="n"/>
-      <c r="B64" s="60" t="n"/>
-      <c r="C64" s="67" t="n"/>
-      <c r="D64" s="67" t="n"/>
-      <c r="E64" s="67" t="n"/>
-      <c r="F64" s="19" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="G64" s="19" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="H64" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(1/2 groupe)</t>
-        </is>
-      </c>
-      <c r="I64" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(non dédoublé)</t>
-        </is>
-      </c>
-      <c r="J64" s="19" t="inlineStr">
-        <is>
-          <t>TP à déclarer ARES</t>
-        </is>
-      </c>
-      <c r="K64" s="19" t="inlineStr">
-        <is>
-          <t>Total en HETD</t>
-        </is>
-      </c>
-      <c r="L64" s="19" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="M64" s="19" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
-      <c r="N64" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(1/2 groupe)</t>
-        </is>
-      </c>
-      <c r="O64" s="20" t="inlineStr">
-        <is>
-          <t>TP
-(non dédoublé)</t>
-        </is>
-      </c>
-      <c r="P64" s="19" t="inlineStr">
-        <is>
-          <t>TP à déclarer ARES</t>
-        </is>
-      </c>
-      <c r="Q64" s="19" t="inlineStr">
-        <is>
-          <t>Total en HETD</t>
-        </is>
-      </c>
-      <c r="R64" s="19" t="inlineStr">
-        <is>
-          <t>Total en HETD</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="24" t="n"/>
-      <c r="B65" s="66" t="n"/>
-      <c r="C65" s="21" t="n"/>
-      <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
-      <c r="F65" s="21" t="n"/>
-      <c r="G65" s="21" t="n"/>
-      <c r="H65" s="21" t="n"/>
-      <c r="I65" s="21" t="n"/>
-      <c r="J65" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="24" t="n"/>
-      <c r="M65" s="24" t="n"/>
-      <c r="N65" s="21" t="n"/>
-      <c r="O65" s="24" t="n"/>
-      <c r="P65" s="22" t="n"/>
-      <c r="Q65" s="23" t="n"/>
-      <c r="R65" s="23" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="21" t="n"/>
-      <c r="B66" s="66" t="n"/>
-      <c r="C66" s="21" t="n"/>
-      <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
-      <c r="F66" s="21" t="n"/>
-      <c r="G66" s="21" t="n"/>
-      <c r="H66" s="21" t="n"/>
-      <c r="I66" s="21" t="n"/>
-      <c r="J66" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="21" t="n"/>
-      <c r="M66" s="21" t="n"/>
-      <c r="N66" s="21" t="n"/>
-      <c r="O66" s="21" t="n"/>
-      <c r="P66" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="21" t="n"/>
-      <c r="B67" s="66" t="n"/>
-      <c r="C67" s="21" t="n"/>
-      <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
-      <c r="F67" s="21" t="n"/>
-      <c r="G67" s="21" t="n"/>
-      <c r="H67" s="21" t="n"/>
-      <c r="I67" s="21" t="n"/>
-      <c r="J67" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" s="21" t="n"/>
-      <c r="M67" s="21" t="n"/>
-      <c r="N67" s="21" t="n"/>
-      <c r="O67" s="21" t="n"/>
-      <c r="P67" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="21" t="n"/>
-      <c r="B68" s="66" t="n"/>
-      <c r="C68" s="21" t="n"/>
-      <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
-      <c r="F68" s="21" t="n"/>
-      <c r="G68" s="21" t="n"/>
-      <c r="H68" s="21" t="n"/>
-      <c r="I68" s="21" t="n"/>
-      <c r="J68" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" s="21" t="n"/>
-      <c r="M68" s="21" t="n"/>
-      <c r="N68" s="21" t="n"/>
-      <c r="O68" s="21" t="n"/>
-      <c r="P68" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D28:H31"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E21:F21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col width="15.33203125" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="27" t="n"/>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="27" t="n"/>
-      <c r="G1" s="27" t="n"/>
-      <c r="H1" s="27" t="n"/>
-      <c r="I1" s="27" t="n"/>
-      <c r="J1" s="27" t="n"/>
-      <c r="K1" s="27" t="n"/>
-      <c r="L1" s="27" t="n"/>
-      <c r="M1" s="27" t="n"/>
-      <c r="N1" s="27" t="n"/>
-      <c r="O1" s="27" t="n"/>
-      <c r="P1" s="27" t="n"/>
-      <c r="Q1" s="27" t="n"/>
-      <c r="R1" s="27" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="36" t="inlineStr">
-        <is>
-          <t>Ressource</t>
-        </is>
-      </c>
-      <c r="B2" s="27" t="inlineStr">
-        <is>
           <t>R1.L.1 Méthodologie du travail universitaire</t>
         </is>
       </c>
@@ -11585,11 +9709,7 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
+      <c r="A8" s="28" t="n"/>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -11608,11 +9728,7 @@
       <c r="R8" s="27" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
+      <c r="A9" s="28" t="n"/>
       <c r="C9" s="27" t="n"/>
       <c r="D9" s="27" t="n"/>
       <c r="E9" s="27" t="n"/>
@@ -11631,11 +9747,7 @@
       <c r="R9" s="27" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
+      <c r="A10" s="28" t="n"/>
       <c r="C10" s="27" t="n"/>
       <c r="D10" s="27" t="n"/>
       <c r="E10" s="27" t="n"/>
@@ -11755,11 +9867,7 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
+      <c r="A15" s="8" t="n"/>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -11787,11 +9895,7 @@
       <c r="R15" s="27" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="11" t="n"/>
       <c r="C16" s="27" t="n"/>
       <c r="D16" s="27" t="n"/>
@@ -11835,14 +9939,8 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -11861,14 +9959,8 @@
       <c r="R18" s="27" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B19" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
       <c r="C19" s="27" t="n"/>
       <c r="D19" s="37" t="inlineStr">
         <is>
@@ -11891,14 +9983,8 @@
       <c r="R19" s="27" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
       <c r="C20" s="27" t="n"/>
       <c r="D20" s="40" t="inlineStr">
         <is>
@@ -11973,14 +10059,8 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>4</v>
-      </c>
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -11999,14 +10079,8 @@
       <c r="R23" s="27" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
       <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
       <c r="E24" s="27" t="n"/>
@@ -12025,14 +10099,8 @@
       <c r="R24" s="27" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
       <c r="C25" s="27" t="n"/>
       <c r="D25" s="27" t="n"/>
       <c r="G25" s="27" t="n"/>
@@ -12097,14 +10165,8 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -12126,14 +10188,8 @@
       <c r="R28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B29" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -12149,14 +10205,8 @@
       <c r="R29" s="27" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B30" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
       <c r="C30" s="27" t="n"/>
       <c r="D30" s="63" t="n"/>
       <c r="H30" s="61" t="n"/>
@@ -12260,21 +10310,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12292,26 +10330,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12328,22 +10350,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12360,21 +10370,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -12392,21 +10390,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -12424,16 +10410,8 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
@@ -12452,18 +10430,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -12480,22 +10450,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -12512,18 +10470,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -12540,18 +10490,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -12568,18 +10510,10 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A45" s="27" t="n"/>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -12596,11 +10530,7 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A46" s="27" t="n"/>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
       <c r="D46" s="27" t="n"/>
@@ -12890,11 +10820,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
+      <c r="A56" s="24" t="n"/>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -12909,30 +10835,16 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="M56" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="N56" s="21" t="n">
-        <v>152</v>
-      </c>
-      <c r="O56" s="24" t="n">
-        <v>76</v>
-      </c>
-      <c r="P56" s="22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
+      <c r="A57" s="68" t="n"/>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
@@ -12947,30 +10859,16 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="M57" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="N57" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O57" s="24" t="n">
-        <v>38</v>
-      </c>
-      <c r="P57" s="22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
       <c r="Q57" s="23" t="n"/>
       <c r="R57" s="23" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
       <c r="B58" s="66" t="n"/>
       <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
@@ -12986,17 +10884,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="N58" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O58" s="21" t="n">
-        <v>38</v>
-      </c>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
       <c r="P58" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="23" t="n">
         <v>0</v>
@@ -13576,11 +11468,7 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
+      <c r="A8" s="28" t="n"/>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -13599,11 +11487,7 @@
       <c r="R8" s="27" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
+      <c r="A9" s="28" t="n"/>
       <c r="C9" s="27" t="n"/>
       <c r="D9" s="27" t="n"/>
       <c r="E9" s="27" t="n"/>
@@ -13742,11 +11626,7 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
+      <c r="A15" s="8" t="n"/>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -13818,14 +11698,8 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -13844,14 +11718,8 @@
       <c r="R18" s="27" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="B19" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
       <c r="C19" s="27" t="n"/>
       <c r="D19" s="37" t="inlineStr">
         <is>
@@ -13950,14 +11818,8 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -13976,14 +11838,8 @@
       <c r="R23" s="27" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
       <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
       <c r="E24" s="27" t="n"/>
@@ -14068,14 +11924,8 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="n">
-        <v>3</v>
-      </c>
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -14097,14 +11947,8 @@
       <c r="R28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="B29" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -14225,16 +12069,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -14253,16 +12089,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -14281,18 +12109,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14309,18 +12129,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14337,18 +12149,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -14775,11 +12579,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
+      <c r="A56" s="24" t="n"/>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -14794,30 +12594,16 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M56" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N56" s="21" t="n">
-        <v>16</v>
-      </c>
-      <c r="O56" s="24" t="n">
-        <v>48</v>
-      </c>
-      <c r="P56" s="22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
+      <c r="A57" s="68" t="n"/>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
@@ -14833,18 +12619,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="21" t="n"/>
-      <c r="M57" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N57" s="21" t="n">
-        <v>16</v>
-      </c>
-      <c r="O57" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="P57" s="22" t="n">
-        <v>1</v>
-      </c>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
       <c r="Q57" s="23" t="n"/>
       <c r="R57" s="23" t="n"/>
     </row>
@@ -16050,18 +13828,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -16078,18 +13848,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -16106,11 +13868,7 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
@@ -17829,18 +15587,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17857,18 +15607,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19003,11 +16745,7 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>zzz</t>
-        </is>
-      </c>
+      <c r="A8" s="28" t="n"/>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -19165,11 +16903,7 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>zzz</t>
-        </is>
-      </c>
+      <c r="A15" s="8" t="n"/>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -19241,14 +16975,8 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>zzz</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
-        <v>3</v>
-      </c>
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -19367,14 +17095,8 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>zzz</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -19479,14 +17201,8 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>zzz</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -19630,16 +17346,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19658,16 +17366,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -19686,22 +17386,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19718,22 +17406,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19750,18 +17426,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19778,17 +17446,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -19806,17 +17466,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -19834,11 +17486,7 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -20208,11 +17856,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="inlineStr">
-        <is>
-          <t>zzz</t>
-        </is>
-      </c>
+      <c r="A56" s="24" t="n"/>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -20227,21 +17871,11 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="M56" s="24" t="n">
-        <v>36</v>
-      </c>
-      <c r="N56" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="O56" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="P56" s="22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
     </row>
@@ -20723,7 +18357,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R1.06 Mathématiques discrètes</t>
+          <t>R1.07 Outils mathématiques fondamentaux</t>
         </is>
       </c>
       <c r="E2" s="27" t="n"/>
@@ -20734,7 +18368,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Patricia GAITAN</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -20810,13 +18444,11 @@
       <c r="B5" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="27" t="inlineStr">
-        <is>
-          <t>Mathématiques discrètes</t>
-        </is>
+      <c r="C5" s="27" t="n">
+        <v>16</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5" s="27" t="n"/>
       <c r="F5" s="27" t="n"/>
@@ -22484,7 +20116,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R1.07 Outils mathématiques fondamentaux</t>
+          <t>R1.08 Introduction à la gestion des organisations</t>
         </is>
       </c>
       <c r="E2" s="27" t="n"/>
@@ -22495,7 +20127,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Patricia GAITAN</t>
+          <t>Christine MAKSSOUD</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -22569,13 +20201,13 @@
     <row r="5">
       <c r="A5" s="27" t="n"/>
       <c r="B5" s="27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" s="27" t="n"/>
       <c r="F5" s="27" t="n"/>
@@ -23232,17 +20864,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23260,17 +20884,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -23288,17 +20904,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -23316,17 +20924,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -23344,18 +20944,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -23372,18 +20964,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -24291,7 +21875,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R1.08 Introduction à la gestion des organisations</t>
+          <t>R1.09 Introduction à l'économie durable et numérique</t>
         </is>
       </c>
       <c r="E2" s="27" t="n"/>
@@ -24376,13 +21960,13 @@
     <row r="5">
       <c r="A5" s="27" t="n"/>
       <c r="B5" s="27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="27" t="n"/>
       <c r="F5" s="27" t="n"/>
@@ -25039,16 +22623,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -25067,16 +22643,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -25095,17 +22663,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -25123,18 +22683,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -12976,7 +12976,7 @@
     <row r="56">
       <c r="A56" s="24" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
+          <t>CHRISTIAN ERNST</t>
         </is>
       </c>
       <c r="B56" s="66" t="n"/>
@@ -12997,13 +12997,13 @@
         <v>9</v>
       </c>
       <c r="M56" s="24" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N56" s="21" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O56" s="24" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="P56" s="22" t="n">
         <v>1</v>
@@ -13018,7 +13018,7 @@
     <row r="57">
       <c r="A57" s="68" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
+          <t>BASMA BOUKENZE</t>
         </is>
       </c>
       <c r="B57" s="66" t="n"/>
@@ -13035,9 +13035,7 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n">
-        <v>9</v>
-      </c>
+      <c r="L57" s="21" t="n"/>
       <c r="M57" s="24" t="n">
         <v>30</v>
       </c>
@@ -13058,11 +13056,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
       <c r="B58" s="66" t="n"/>
       <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
@@ -13078,17 +13072,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="N58" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O58" s="21" t="n">
-        <v>38</v>
-      </c>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
       <c r="P58" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="23" t="n">
         <v>0</v>
@@ -13318,7 +13306,11 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="24" t="n"/>
+      <c r="A65" s="24" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
       <c r="B65" s="66" t="n"/>
       <c r="C65" s="21" t="n"/>
       <c r="D65" s="21" t="n"/>
@@ -13334,17 +13326,19 @@
         <v>0</v>
       </c>
       <c r="L65" s="24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M65" s="24" t="n">
-        <v>40</v>
-      </c>
-      <c r="N65" s="21" t="n"/>
+        <v>60</v>
+      </c>
+      <c r="N65" s="21" t="n">
+        <v>152</v>
+      </c>
       <c r="O65" s="24" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="P65" s="22" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="23" t="n">
         <v>98</v>
@@ -14881,7 +14875,7 @@
     <row r="56">
       <c r="A56" s="24" t="inlineStr">
         <is>
-          <t>Test2</t>
+          <t>TEST2</t>
         </is>
       </c>
       <c r="B56" s="66" t="n"/>
@@ -14923,7 +14917,7 @@
     <row r="57">
       <c r="A57" s="68" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>SSS</t>
         </is>
       </c>
       <c r="B57" s="66" t="n"/>
@@ -20354,7 +20348,7 @@
     <row r="56">
       <c r="A56" s="24" t="inlineStr">
         <is>
-          <t>zzz</t>
+          <t>ZZZ</t>
         </is>
       </c>
       <c r="B56" s="66" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -3274,10 +3274,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -3294,10 +3302,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -3314,10 +3330,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -3334,10 +3358,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -3354,10 +3386,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -3374,10 +3414,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -3394,10 +3442,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -3414,10 +3470,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -3434,10 +3498,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -3454,10 +3526,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -3474,10 +3554,18 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -3494,10 +3582,18 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -3514,10 +3610,18 @@
       <c r="R46" s="27" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="n"/>
+      <c r="A47" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B47" s="27" t="n"/>
       <c r="C47" s="27" t="n"/>
-      <c r="D47" s="27" t="n"/>
+      <c r="D47" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E47" s="27" t="n"/>
       <c r="F47" s="27" t="n"/>
       <c r="G47" s="27" t="n"/>
@@ -5033,9 +5137,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5053,9 +5165,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5073,9 +5193,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5093,9 +5221,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -5113,9 +5249,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5133,9 +5277,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5153,9 +5305,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -5173,9 +5333,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -5193,9 +5361,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5213,9 +5389,17 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
-      <c r="C44" s="27" t="n"/>
+      <c r="C44" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
@@ -6792,9 +6976,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -6812,9 +7004,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6832,9 +7032,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6852,9 +7060,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -6872,10 +7088,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -9709,7 +9933,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -9728,7 +9956,11 @@
       <c r="R8" s="27" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="n"/>
+      <c r="A9" s="28" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="C9" s="27" t="n"/>
       <c r="D9" s="27" t="n"/>
       <c r="E9" s="27" t="n"/>
@@ -9747,7 +9979,11 @@
       <c r="R9" s="27" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="n"/>
+      <c r="A10" s="28" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
       <c r="C10" s="27" t="n"/>
       <c r="D10" s="27" t="n"/>
       <c r="E10" s="27" t="n"/>
@@ -9867,7 +10103,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -9895,7 +10135,11 @@
       <c r="R15" s="27" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="B16" s="11" t="n"/>
       <c r="C16" s="27" t="n"/>
       <c r="D16" s="27" t="n"/>
@@ -9939,8 +10183,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -9959,8 +10209,14 @@
       <c r="R18" s="27" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="B19" s="13" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" s="27" t="n"/>
       <c r="D19" s="37" t="inlineStr">
         <is>
@@ -9983,8 +10239,14 @@
       <c r="R19" s="27" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n"/>
-      <c r="B20" s="13" t="n"/>
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="27" t="n"/>
       <c r="D20" s="40" t="inlineStr">
         <is>
@@ -10059,8 +10321,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -10079,8 +10347,14 @@
       <c r="R23" s="27" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
       <c r="E24" s="27" t="n"/>
@@ -10099,8 +10373,14 @@
       <c r="R24" s="27" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="C25" s="27" t="n"/>
       <c r="D25" s="27" t="n"/>
       <c r="G25" s="27" t="n"/>
@@ -10165,8 +10445,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -10188,8 +10474,14 @@
       <c r="R28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n"/>
-      <c r="B29" s="13" t="n"/>
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
@@ -10205,8 +10497,14 @@
       <c r="R29" s="27" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="13" t="n"/>
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C30" s="27" t="n"/>
       <c r="D30" s="63" t="n"/>
       <c r="H30" s="61" t="n"/>
@@ -10310,8 +10608,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10330,9 +10636,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10350,9 +10668,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10370,10 +10700,26 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -10390,10 +10736,26 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10410,10 +10772,26 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -10430,10 +10808,22 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -10450,10 +10840,26 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
-      <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B42" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -10470,10 +10876,22 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -10490,10 +10908,26 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B44" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C44" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 6H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10510,10 +10944,22 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
-      <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="C45" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -10530,10 +10976,26 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
-      <c r="B46" s="27" t="n"/>
-      <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B46" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C46" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -10550,10 +11012,18 @@
       <c r="R46" s="27" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="n"/>
+      <c r="A47" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B47" s="27" t="n"/>
       <c r="C47" s="27" t="n"/>
-      <c r="D47" s="27" t="n"/>
+      <c r="D47" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E47" s="27" t="n"/>
       <c r="F47" s="27" t="n"/>
       <c r="G47" s="27" t="n"/>
@@ -10570,10 +11040,18 @@
       <c r="R47" s="27" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="27" t="n"/>
+      <c r="A48" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B48" s="27" t="n"/>
       <c r="C48" s="27" t="n"/>
-      <c r="D48" s="27" t="n"/>
+      <c r="D48" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E48" s="27" t="n"/>
       <c r="F48" s="27" t="n"/>
       <c r="G48" s="27" t="n"/>
@@ -10590,10 +11068,18 @@
       <c r="R48" s="27" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="27" t="n"/>
+      <c r="A49" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B49" s="27" t="n"/>
       <c r="C49" s="27" t="n"/>
-      <c r="D49" s="27" t="n"/>
+      <c r="D49" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E49" s="27" t="n"/>
       <c r="F49" s="27" t="n"/>
       <c r="G49" s="27" t="n"/>
@@ -10610,7 +11096,11 @@
       <c r="R49" s="27" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="27" t="n"/>
+      <c r="A50" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B50" s="27" t="n"/>
       <c r="C50" s="27" t="n"/>
       <c r="D50" s="27" t="n"/>
@@ -10820,7 +11310,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -10835,16 +11329,30 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
-      <c r="P56" s="22" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>152</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>76</v>
+      </c>
+      <c r="P56" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="n"/>
+      <c r="A57" s="68" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
@@ -10859,16 +11367,30 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n"/>
-      <c r="M57" s="24" t="n"/>
-      <c r="N57" s="21" t="n"/>
-      <c r="O57" s="24" t="n"/>
-      <c r="P57" s="22" t="n"/>
+      <c r="L57" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M57" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="N57" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="O57" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="P57" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="Q57" s="23" t="n"/>
       <c r="R57" s="23" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
       <c r="B58" s="66" t="n"/>
       <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
@@ -10884,11 +11406,17 @@
         <v>0</v>
       </c>
       <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n"/>
-      <c r="N58" s="21" t="n"/>
-      <c r="O58" s="21" t="n"/>
+      <c r="M58" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="N58" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="O58" s="21" t="n">
+        <v>38</v>
+      </c>
       <c r="P58" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="23" t="n">
         <v>0</v>
@@ -12069,8 +12597,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -12089,10 +12625,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12109,10 +12657,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12129,10 +12685,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -12149,10 +12713,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -13828,8 +14400,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -13848,8 +14428,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -13868,9 +14456,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -13888,10 +14484,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -13908,10 +14512,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -13928,7 +14540,11 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -15587,10 +16203,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -15607,10 +16235,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15627,10 +16267,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15647,10 +16295,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -15667,9 +16323,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -17346,8 +18010,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17366,8 +18038,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -17386,10 +18066,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17406,10 +18098,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17426,10 +18130,22 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -17446,10 +18162,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -17466,9 +18190,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -17486,9 +18218,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -17506,9 +18246,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -19105,9 +19853,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19125,9 +19881,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19145,9 +19909,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -19165,9 +19937,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -19185,10 +19965,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19205,10 +19993,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -20864,9 +21660,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20884,9 +21688,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20904,9 +21720,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20924,9 +21752,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -20944,9 +21780,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -20964,9 +21808,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -20984,9 +21836,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -21004,10 +21864,22 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -21024,10 +21896,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -22623,9 +23503,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -22643,9 +23535,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22663,9 +23563,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -22683,9 +23591,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -22703,9 +23619,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -22723,9 +23647,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -22743,10 +23675,22 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R1.01 Initiation au développeme" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R1.02 Développement d'interface" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R1.03 Introduction à l'architec" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R1.04 Introduction aux systèmes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R1.05 Introduction aux bases de" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R1.07 Outils mathématiques fond" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R1.08 Introduction à la gestion" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R1.09 Introduction à l'économie" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R1.01 Initiation au développement" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R1.02 Développement d'interfaces web" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R1.03 Introduction à l'architecture des ordinateurs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R1.04 Introduction aux systèmes d'exploitation, à leur fonctionnement" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R1.05 Introduction aux bases de données et SQL" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R1.07 Outils mathématiques fondamentaux" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R1.08 Introduction à la gestion des organisations" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R1.09 Introduction à l'économie durable et numérique" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="R1.10 Anglais technique" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="R1.11 Bases de la communication" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="R1.12 PPP" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R1.L.1 Méthodologie du travail " sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R1.L.1 Méthodologie du travail universitaire" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3283,7 +3283,7 @@
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -3311,7 +3311,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -3339,7 +3339,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -3367,7 +3367,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -3395,7 +3395,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -3423,7 +3423,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -3451,7 +3451,7 @@
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -3479,7 +3479,7 @@
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -3507,7 +3507,7 @@
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -3535,7 +3535,7 @@
       <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -3563,7 +3563,7 @@
       <c r="C45" s="27" t="n"/>
       <c r="D45" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
@@ -3591,7 +3591,7 @@
       <c r="C46" s="27" t="n"/>
       <c r="D46" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E46" s="27" t="n"/>
@@ -3619,7 +3619,7 @@
       <c r="C47" s="27" t="n"/>
       <c r="D47" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E47" s="27" t="n"/>
@@ -5145,7 +5145,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -5173,7 +5173,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -5201,7 +5201,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -5229,7 +5229,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -5257,7 +5257,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -5285,7 +5285,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -5313,7 +5313,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -5341,7 +5341,7 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D42" s="27" t="n"/>
@@ -5369,7 +5369,7 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
@@ -5397,7 +5397,7 @@
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D44" s="27" t="n"/>
@@ -6984,7 +6984,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -7012,7 +7012,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -7040,7 +7040,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -7068,7 +7068,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -7097,7 +7097,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -10643,12 +10643,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -10675,12 +10675,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -10707,17 +10707,17 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -10743,17 +10743,17 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -10779,17 +10779,17 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -10816,12 +10816,12 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -10847,17 +10847,17 @@
       </c>
       <c r="B42" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -10884,12 +10884,12 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -10915,17 +10915,17 @@
       </c>
       <c r="B44" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C44" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 6H</t>
+          <t>TP 3H - Salle Machine</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -10952,12 +10952,12 @@
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D45" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
@@ -10983,17 +10983,17 @@
       </c>
       <c r="B46" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C46" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle Machine</t>
         </is>
       </c>
       <c r="D46" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle Machine</t>
         </is>
       </c>
       <c r="E46" s="27" t="n"/>
@@ -11021,7 +11021,7 @@
       <c r="C47" s="27" t="n"/>
       <c r="D47" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E47" s="27" t="n"/>
@@ -11049,7 +11049,7 @@
       <c r="C48" s="27" t="n"/>
       <c r="D48" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E48" s="27" t="n"/>
@@ -11077,7 +11077,7 @@
       <c r="C49" s="27" t="n"/>
       <c r="D49" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E49" s="27" t="n"/>
@@ -11312,7 +11312,7 @@
     <row r="56">
       <c r="A56" s="24" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
+          <t>CHRISTIAN ERNST</t>
         </is>
       </c>
       <c r="B56" s="66" t="n"/>
@@ -11333,13 +11333,13 @@
         <v>9</v>
       </c>
       <c r="M56" s="24" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N56" s="21" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O56" s="24" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="P56" s="22" t="n">
         <v>1</v>
@@ -11350,7 +11350,7 @@
     <row r="57">
       <c r="A57" s="68" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
+          <t>BASMA BOUKENZE</t>
         </is>
       </c>
       <c r="B57" s="66" t="n"/>
@@ -11367,9 +11367,7 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n">
-        <v>9</v>
-      </c>
+      <c r="L57" s="21" t="n"/>
       <c r="M57" s="24" t="n">
         <v>30</v>
       </c>
@@ -11386,11 +11384,7 @@
       <c r="R57" s="23" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
       <c r="B58" s="66" t="n"/>
       <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
@@ -11406,17 +11400,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="N58" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O58" s="21" t="n">
-        <v>38</v>
-      </c>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
       <c r="P58" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="23" t="n">
         <v>0</v>
@@ -11646,7 +11634,11 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="24" t="n"/>
+      <c r="A65" s="24" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
       <c r="B65" s="66" t="n"/>
       <c r="C65" s="21" t="n"/>
       <c r="D65" s="21" t="n"/>
@@ -11661,11 +11653,21 @@
       <c r="K65" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L65" s="24" t="n"/>
-      <c r="M65" s="24" t="n"/>
-      <c r="N65" s="21" t="n"/>
-      <c r="O65" s="24" t="n"/>
-      <c r="P65" s="22" t="n"/>
+      <c r="L65" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="M65" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="N65" s="21" t="n">
+        <v>152</v>
+      </c>
+      <c r="O65" s="24" t="n">
+        <v>76</v>
+      </c>
+      <c r="P65" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="Q65" s="23" t="n"/>
       <c r="R65" s="23" t="n"/>
     </row>
@@ -12604,7 +12606,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -12632,13 +12634,13 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -12666,7 +12668,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -12694,7 +12696,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -12722,7 +12724,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -14407,7 +14409,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -14435,7 +14437,7 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
@@ -14464,7 +14466,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -14493,7 +14495,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -14521,7 +14523,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -16210,13 +16212,13 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -16242,13 +16244,13 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -16269,14 +16271,14 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -16297,14 +16299,14 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle Machine</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -16331,7 +16333,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -18017,7 +18019,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -18045,7 +18047,7 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
@@ -18073,13 +18075,13 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -18105,13 +18107,13 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -18137,13 +18139,13 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -18171,7 +18173,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -18198,7 +18200,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -18226,7 +18228,7 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D42" s="27" t="n"/>
@@ -18254,7 +18256,7 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle Machine</t>
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
@@ -19861,7 +19863,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -19889,7 +19891,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -19917,7 +19919,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -19945,7 +19947,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -19974,7 +19976,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -20002,7 +20004,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -21668,7 +21670,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -21695,12 +21697,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -21727,12 +21729,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -21760,7 +21762,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -21788,7 +21790,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -21816,7 +21818,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -21844,7 +21846,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -21872,12 +21874,12 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -21905,7 +21907,7 @@
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -23510,12 +23512,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -23543,7 +23545,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -23571,7 +23573,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -23599,7 +23601,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -23627,7 +23629,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 2H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -23655,7 +23657,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -23683,12 +23685,12 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 1H - Salle TD/Amphi</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -16271,7 +16271,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -16299,7 +16299,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -3283,7 +3283,7 @@
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -3304,14 +3304,14 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -3332,14 +3332,14 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -3360,14 +3360,14 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -3388,14 +3388,14 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -3416,14 +3416,14 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -3444,14 +3444,14 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
@@ -3472,14 +3472,14 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
@@ -3500,14 +3500,14 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E43" s="27" t="n"/>
@@ -3526,18 +3526,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -3554,18 +3546,10 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A45" s="27" t="n"/>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -3582,18 +3566,10 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A46" s="27" t="n"/>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="D46" s="27" t="n"/>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -3610,18 +3586,10 @@
       <c r="R46" s="27" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A47" s="27" t="n"/>
       <c r="B47" s="27" t="n"/>
       <c r="C47" s="27" t="n"/>
-      <c r="D47" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="D47" s="27" t="n"/>
       <c r="E47" s="27" t="n"/>
       <c r="F47" s="27" t="n"/>
       <c r="G47" s="27" t="n"/>
@@ -5145,7 +5113,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -5173,7 +5141,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -5201,7 +5169,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -5229,7 +5197,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -5257,7 +5225,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -5285,7 +5253,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -5313,7 +5281,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -5335,13 +5303,13 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D42" s="27" t="n"/>
@@ -5361,17 +5329,9 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
+      <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5389,17 +5349,9 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
-      <c r="C44" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
+      <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
@@ -6984,7 +6936,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -7012,7 +6964,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -7040,7 +6992,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -7068,7 +7020,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -7097,7 +7049,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -10615,7 +10567,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -10643,12 +10595,12 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -10675,12 +10627,12 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H - Salle TD/Amphi</t>
+          <t>Amphi 4H</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -10707,17 +10659,17 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -10743,17 +10695,17 @@
       </c>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -10779,19 +10731,15 @@
       </c>
       <c r="B40" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle Machine</t>
-        </is>
-      </c>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -10810,20 +10758,20 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="n"/>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle Machine</t>
-        </is>
-      </c>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -10842,24 +10790,16 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B42" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle Machine</t>
-        </is>
-      </c>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -10878,20 +10818,16 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle Machine</t>
-        </is>
-      </c>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B43" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -10910,22 +10846,14 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B44" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
-      <c r="C44" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 3H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -10946,18 +10874,22 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B45" s="27" t="n"/>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B45" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C45" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle Machine</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D45" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
@@ -10978,22 +10910,14 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B46" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
-      <c r="C46" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle Machine</t>
-        </is>
-      </c>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
       <c r="D46" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E46" s="27" t="n"/>
@@ -11014,14 +10938,14 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B47" s="27" t="n"/>
       <c r="C47" s="27" t="n"/>
       <c r="D47" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E47" s="27" t="n"/>
@@ -11042,14 +10966,14 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B48" s="27" t="n"/>
       <c r="C48" s="27" t="n"/>
       <c r="D48" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E48" s="27" t="n"/>
@@ -11070,16 +10994,12 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B49" s="27" t="n"/>
       <c r="C49" s="27" t="n"/>
-      <c r="D49" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H - Salle Machine</t>
-        </is>
-      </c>
+      <c r="D49" s="27" t="n"/>
       <c r="E49" s="27" t="n"/>
       <c r="F49" s="27" t="n"/>
       <c r="G49" s="27" t="n"/>
@@ -11096,11 +11016,7 @@
       <c r="R49" s="27" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A50" s="27" t="n"/>
       <c r="B50" s="27" t="n"/>
       <c r="C50" s="27" t="n"/>
       <c r="D50" s="27" t="n"/>
@@ -11330,20 +11246,18 @@
         <v>0</v>
       </c>
       <c r="L56" s="21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M56" s="24" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N56" s="21" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="O56" s="24" t="n">
-        <v>38</v>
-      </c>
-      <c r="P56" s="22" t="n">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
     </row>
@@ -11369,17 +11283,15 @@
       </c>
       <c r="L57" s="21" t="n"/>
       <c r="M57" s="24" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N57" s="21" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="O57" s="24" t="n">
-        <v>38</v>
-      </c>
-      <c r="P57" s="22" t="n">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P57" s="22" t="n"/>
       <c r="Q57" s="23" t="n"/>
       <c r="R57" s="23" t="n"/>
     </row>
@@ -11654,20 +11566,18 @@
         <v>0</v>
       </c>
       <c r="L65" s="24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M65" s="24" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N65" s="21" t="n">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="O65" s="24" t="n">
-        <v>76</v>
-      </c>
-      <c r="P65" s="22" t="n">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P65" s="22" t="n"/>
       <c r="Q65" s="23" t="n"/>
       <c r="R65" s="23" t="n"/>
     </row>
@@ -12606,7 +12516,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H - Salle TD/Amphi</t>
+          <t>Amphi 4H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -12634,13 +12544,13 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -12668,7 +12578,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -12696,7 +12606,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -12724,7 +12634,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -14404,15 +14314,15 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="n"/>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -14432,16 +14342,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -14460,16 +14370,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H - Salle Machine</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14488,16 +14398,12 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H - Salle Machine</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14514,18 +14420,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H - Salle Machine</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -14542,11 +14440,7 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -16210,15 +16104,11 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -16242,15 +16132,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -16278,7 +16164,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -16306,7 +16192,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle Machine</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -16333,7 +16219,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle Machine</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -18019,7 +17905,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -18047,7 +17933,7 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="n"/>
@@ -18075,13 +17961,13 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -18107,13 +17993,13 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -18137,15 +18023,11 @@
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -18173,7 +18055,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -18200,7 +18082,7 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
@@ -18228,7 +18110,7 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D42" s="27" t="n"/>
@@ -18254,11 +18136,7 @@
         </is>
       </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H - Salle Machine</t>
-        </is>
-      </c>
+      <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -19863,7 +19741,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -19891,7 +19769,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -19919,7 +19797,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -19947,7 +19825,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -19976,7 +19854,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -20004,7 +19882,7 @@
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H - Salle TD/Amphi</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -21664,15 +21542,15 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21692,17 +21570,17 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -21724,17 +21602,13 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -21756,16 +21630,20 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="n"/>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -21784,16 +21662,16 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -21810,17 +21688,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -21838,17 +21708,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -21866,22 +21728,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -21898,18 +21748,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 1H - Salle TD/Amphi</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -23512,12 +23354,12 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 1H - Salle TD/Amphi</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -23545,7 +23387,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -23573,7 +23415,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -23601,7 +23443,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -23629,7 +23471,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H - Salle TD/Amphi</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -23657,7 +23499,7 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D40" s="27" t="n"/>
@@ -23685,12 +23527,12 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
-          <t>TD 1H - Salle TD/Amphi</t>
+          <t>TD 2H</t>
         </is>
       </c>
       <c r="D41" s="27" t="inlineStr">
         <is>
-          <t>TP 1H - Salle TD/Amphi</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E41" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -11908,7 +11908,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -12066,7 +12070,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -12138,8 +12146,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -12258,8 +12272,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -12364,8 +12384,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -13063,7 +13089,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -13078,10 +13108,18 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>64</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>48</v>
+      </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R1.01 Initiation au développement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R1.02 Développement d'interfaces web" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R1.03 Introduction à l'architecture des ordinateurs" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R1.04 Introduction aux systèmes d'exploitation, à leur fonctionnement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R1.05 Introduction aux bases de données et SQL" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R1.07 Outils mathématiques fondamentaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R1.08 Introduction à la gestion des organisations" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R1.09 Introduction à l'économie durable et numérique" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R1.10 Anglais technique" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R1.11 Bases de la communication" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R1.12 PPP" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R1.L.1 Méthodologie du travail universitaire" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R1.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R1.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R1.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R1.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R1.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R1.07" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R1.08" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R1.09" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R1.10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R1.11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R1.12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R1.L.1" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -3304,7 +3304,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -3332,7 +3332,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -3360,7 +3360,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -3388,7 +3388,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -3416,7 +3416,7 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
@@ -3444,7 +3444,7 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B41" s="27" t="n"/>
@@ -3472,7 +3472,7 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
@@ -3500,7 +3500,7 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B43" s="27" t="n"/>
@@ -3526,10 +3526,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -3546,10 +3554,18 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -3566,10 +3582,18 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -3586,10 +3610,18 @@
       <c r="R46" s="27" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="27" t="n"/>
+      <c r="A47" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B47" s="27" t="n"/>
       <c r="C47" s="27" t="n"/>
-      <c r="D47" s="27" t="n"/>
+      <c r="D47" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E47" s="27" t="n"/>
       <c r="F47" s="27" t="n"/>
       <c r="G47" s="27" t="n"/>
@@ -5303,7 +5335,7 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
@@ -5329,9 +5361,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5349,9 +5389,17 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
-      <c r="C44" s="27" t="n"/>
+      <c r="C44" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
@@ -10567,7 +10615,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 4H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
@@ -10595,7 +10643,7 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 4H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
@@ -10739,7 +10787,11 @@
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -10758,20 +10810,20 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -10790,16 +10842,24 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B42" s="27" t="n"/>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B42" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C42" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -10818,16 +10878,20 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B43" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -10846,14 +10910,22 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="27" t="n"/>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B44" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C44" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D44" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 6H</t>
         </is>
       </c>
       <c r="E44" s="27" t="n"/>
@@ -10874,14 +10946,10 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B45" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -10910,14 +10978,22 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B46" s="27" t="n"/>
-      <c r="C46" s="27" t="n"/>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B46" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C46" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D46" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E46" s="27" t="n"/>
@@ -10938,7 +11014,7 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B47" s="27" t="n"/>
@@ -10966,7 +11042,7 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B48" s="27" t="n"/>
@@ -10994,12 +11070,16 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B49" s="27" t="n"/>
       <c r="C49" s="27" t="n"/>
-      <c r="D49" s="27" t="n"/>
+      <c r="D49" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E49" s="27" t="n"/>
       <c r="F49" s="27" t="n"/>
       <c r="G49" s="27" t="n"/>
@@ -11016,7 +11096,11 @@
       <c r="R49" s="27" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="27" t="n"/>
+      <c r="A50" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B50" s="27" t="n"/>
       <c r="C50" s="27" t="n"/>
       <c r="D50" s="27" t="n"/>
@@ -11246,16 +11330,16 @@
         <v>0</v>
       </c>
       <c r="L56" s="21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M56" s="24" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N56" s="21" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="O56" s="24" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
@@ -11283,13 +11367,13 @@
       </c>
       <c r="L57" s="21" t="n"/>
       <c r="M57" s="24" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N57" s="21" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="O57" s="24" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P57" s="22" t="n"/>
       <c r="Q57" s="23" t="n"/>
@@ -11566,16 +11650,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M65" s="24" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N65" s="21" t="n">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="O65" s="24" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="P65" s="22" t="n"/>
       <c r="Q65" s="23" t="n"/>
@@ -11772,7 +11856,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -13613,7 +13697,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -14352,15 +14436,15 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -14380,16 +14464,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="n"/>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -14408,16 +14492,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14436,12 +14520,16 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14458,10 +14546,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -14478,7 +14574,11 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -15400,7 +15500,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -16142,7 +16242,11 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
@@ -16170,7 +16274,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
@@ -16230,7 +16338,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -17199,7 +17307,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -18061,7 +18169,11 @@
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="B39" s="27" t="n"/>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
@@ -18174,7 +18286,11 @@
         </is>
       </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -19863,7 +19979,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -19892,7 +20008,7 @@
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -21580,15 +21696,15 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="n"/>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21608,7 +21724,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="inlineStr">
@@ -21640,10 +21756,14 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n"/>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -21668,7 +21788,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -21677,11 +21797,7 @@
           <t>TD 2H</t>
         </is>
       </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -21700,16 +21816,16 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -21726,9 +21842,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -21746,9 +21870,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -21766,10 +21898,22 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -21786,10 +21930,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -10792,7 +10792,11 @@
           <t>TP 2H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -11104,7 +11108,11 @@
       <c r="B50" s="27" t="n"/>
       <c r="C50" s="27" t="n"/>
       <c r="D50" s="27" t="n"/>
-      <c r="E50" s="27" t="n"/>
+      <c r="E50" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F50" s="27" t="n"/>
       <c r="G50" s="27" t="n"/>
       <c r="H50" s="27" t="n"/>
@@ -14582,7 +14590,11 @@
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -18208,7 +18220,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -18292,7 +18308,11 @@
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -2537,7 +2537,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -11864,7 +11864,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -13705,7 +13705,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -15512,7 +15512,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
@@ -11661,7 +11661,7 @@
         <v>12</v>
       </c>
       <c r="M65" s="24" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N65" s="21" t="n">
         <v>152</v>
@@ -13841,7 +13841,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -13999,7 +14003,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -14071,8 +14079,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -14191,8 +14205,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -14297,8 +14317,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -15000,7 +15026,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -15015,10 +15045,18 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>8</v>
+      </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>
@@ -17455,7 +17493,11 @@
       <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="n"/>
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
       <c r="C8" s="27" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="27" t="n"/>
@@ -17613,7 +17655,11 @@
       <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
       <c r="B15" s="9" t="n"/>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="32" t="inlineStr">
@@ -17685,8 +17731,14 @@
       <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="13" t="n"/>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" s="27" t="n"/>
       <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
@@ -17805,8 +17857,14 @@
       <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n"/>
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
@@ -17911,8 +17969,14 @@
       <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="13" t="n"/>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
@@ -18658,7 +18722,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="24" t="n"/>
+      <c r="A56" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEST </t>
+        </is>
+      </c>
       <c r="B56" s="66" t="n"/>
       <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
@@ -18673,10 +18741,18 @@
       <c r="K56" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n"/>
-      <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n"/>
+      <c r="L56" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M56" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="N56" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="O56" s="24" t="n">
+        <v>16</v>
+      </c>
       <c r="P56" s="22" t="n"/>
       <c r="Q56" s="23" t="n"/>
       <c r="R56" s="23" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -10002,7 +10002,11 @@
       <c r="R10" s="27" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n"/>
+      <c r="A11" s="27" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n"/>
       <c r="D11" s="27" t="n"/>
@@ -10022,7 +10026,11 @@
       <c r="R11" s="27" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="n"/>
+      <c r="A12" s="27" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="27" t="n"/>
       <c r="D12" s="27" t="n"/>
@@ -10044,7 +10052,7 @@
     <row r="13" ht="29" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Basma Boukenze</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -10161,7 +10169,7 @@
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>Alain Casali</t>
         </is>
       </c>
       <c r="B17" s="12" t="n"/>
@@ -10185,7 +10193,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
+          <t>Christian Ernst</t>
         </is>
       </c>
       <c r="B18" s="13" t="n">
@@ -10269,8 +10277,14 @@
       <c r="R20" s="27" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="n"/>
-      <c r="B21" s="10" t="n"/>
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="C21" s="27" t="n"/>
       <c r="D21" s="40" t="inlineStr">
         <is>
@@ -10295,10 +10309,12 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>TP dédoublés</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="n"/>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C22" s="27" t="n"/>
       <c r="D22" s="32" t="inlineStr">
         <is>
@@ -10323,11 +10339,11 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
+          <t>Basma Boukenze</t>
         </is>
       </c>
       <c r="B23" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
@@ -10397,8 +10413,14 @@
       <c r="R25" s="27" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="n"/>
-      <c r="B26" s="10" t="n"/>
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="C26" s="27" t="n"/>
       <c r="D26" s="27" t="n"/>
       <c r="E26" s="27" t="n"/>
@@ -10419,10 +10441,12 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>TP non dédoublés</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n"/>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="C27" s="27" t="n"/>
       <c r="D27" s="37" t="inlineStr">
         <is>
@@ -10447,7 +10471,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
+          <t>Basma Boukenze</t>
         </is>
       </c>
       <c r="B28" s="13" t="n">
@@ -10520,8 +10544,14 @@
       <c r="R30" s="27" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="n"/>
-      <c r="B31" s="10" t="n"/>
+      <c r="A31" s="10" t="inlineStr">
+        <is>
+          <t>Alain Casali</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="64" t="n"/>
       <c r="E31" s="59" t="n"/>
@@ -10540,8 +10570,14 @@
       <c r="R31" s="27" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="n"/>
-      <c r="B32" s="27" t="n"/>
+      <c r="A32" s="27" t="inlineStr">
+        <is>
+          <t>Christian Ernst</t>
+        </is>
+      </c>
+      <c r="B32" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
@@ -10562,13 +10598,11 @@
     <row r="33">
       <c r="A33" s="36" t="inlineStr">
         <is>
-          <t>Organisation détaillée</t>
-        </is>
-      </c>
-      <c r="B33" s="28" t="inlineStr">
-        <is>
-          <t>(toutes les informations doivent figurer ici)</t>
-        </is>
+          <t>Basma Boukenze</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="n">
+        <v>1</v>
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="27" t="n"/>
@@ -11373,7 +11407,9 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n"/>
+      <c r="L57" s="21" t="n">
+        <v>12</v>
+      </c>
       <c r="M57" s="24" t="n">
         <v>30</v>
       </c>
@@ -11388,7 +11424,11 @@
       <c r="R57" s="23" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>CHRISTIAN ERNST</t>
+        </is>
+      </c>
       <c r="B58" s="66" t="n"/>
       <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
@@ -11404,9 +11444,15 @@
         <v>0</v>
       </c>
       <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n"/>
-      <c r="N58" s="21" t="n"/>
-      <c r="O58" s="21" t="n"/>
+      <c r="M58" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="N58" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="O58" s="21" t="n">
+        <v>38</v>
+      </c>
       <c r="P58" s="22" t="n">
         <v>0</v>
       </c>
@@ -11418,7 +11464,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>BASMA BOUKENZE</t>
+        </is>
+      </c>
       <c r="B59" s="66" t="n"/>
       <c r="C59" s="21" t="n"/>
       <c r="D59" s="21" t="n"/>
@@ -11434,9 +11484,15 @@
         <v>0</v>
       </c>
       <c r="L59" s="21" t="n"/>
-      <c r="M59" s="21" t="n"/>
-      <c r="N59" s="21" t="n"/>
-      <c r="O59" s="21" t="n"/>
+      <c r="M59" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="N59" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="O59" s="21" t="n">
+        <v>38</v>
+      </c>
       <c r="P59" s="22" t="n">
         <v>0</v>
       </c>
@@ -11674,7 +11730,11 @@
       <c r="R65" s="23" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="n"/>
+      <c r="A66" s="21" t="inlineStr">
+        <is>
+          <t>ALAIN CASALI</t>
+        </is>
+      </c>
       <c r="B66" s="66" t="n"/>
       <c r="C66" s="21" t="n"/>
       <c r="D66" s="21" t="n"/>
@@ -11689,10 +11749,18 @@
       <c r="K66" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L66" s="21" t="n"/>
-      <c r="M66" s="21" t="n"/>
-      <c r="N66" s="21" t="n"/>
-      <c r="O66" s="21" t="n"/>
+      <c r="L66" s="21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M66" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="N66" s="21" t="n">
+        <v>152</v>
+      </c>
+      <c r="O66" s="21" t="n">
+        <v>76</v>
+      </c>
       <c r="P66" s="22" t="n">
         <v>0</v>
       </c>
@@ -13183,7 +13251,7 @@
     <row r="56">
       <c r="A56" s="24" t="inlineStr">
         <is>
-          <t>CHRISTIAN LAKHAL</t>
+          <t>TEST2</t>
         </is>
       </c>
       <c r="B56" s="66" t="n"/>
@@ -13217,7 +13285,11 @@
       <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="n"/>
+      <c r="A57" s="68" t="inlineStr">
+        <is>
+          <t>CHRISTIAN LAKHAL</t>
+        </is>
+      </c>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>

--- a/SAE_3_01/fichiers genere/S1.xlsx
+++ b/SAE_3_01/fichiers genere/S1.xlsx
@@ -10002,11 +10002,7 @@
       <c r="R10" s="27" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
+      <c r="A11" s="27" t="n"/>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n"/>
       <c r="D11" s="27" t="n"/>
@@ -10026,11 +10022,7 @@
       <c r="R11" s="27" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
+      <c r="A12" s="27" t="n"/>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="27" t="n"/>
       <c r="D12" s="27" t="n"/>
@@ -10052,7 +10044,7 @@
     <row r="13" ht="29" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Basma Boukenze</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -10169,7 +10161,7 @@
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>Alain Casali</t>
+          <t>TD</t>
         </is>
       </c>
       <c r="B17" s="12" t="n"/>
@@ -10193,7 +10185,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
+          <t>Alain Casali</t>
         </is>
       </c>
       <c r="B18" s="13" t="n">
@@ -10277,14 +10269,8 @@
       <c r="R20" s="27" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B21" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
       <c r="C21" s="27" t="n"/>
       <c r="D21" s="40" t="inlineStr">
         <is>
@@ -10309,12 +10295,10 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="n">
-        <v>1</v>
-      </c>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
       <c r="C22" s="27" t="n"/>
       <c r="D22" s="32" t="inlineStr">
         <is>
@@ -10339,11 +10323,11 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>Basma Boukenze</t>
+          <t>Alain Casali</t>
         </is>
       </c>
       <c r="B23" s="8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
@@ -10413,14 +10397,8 @@
       <c r="R25" s="27" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B26" s="10" t="n">
-        <v>4</v>
-      </c>
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
       <c r="C26" s="27" t="n"/>
       <c r="D26" s="27" t="n"/>
       <c r="E26" s="27" t="n"/>
@@ -10441,12 +10419,10 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n">
-        <v>2</v>
-      </c>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
       <c r="C27" s="27" t="n"/>
       <c r="D27" s="37" t="inlineStr">
         <is>
@@ -10471,7 +10447,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>Basma Boukenze</t>
+          <t>Alain Casali</t>
         </is>
       </c>
       <c r="B28" s="13" t="n">
@@ -10544,14 +10520,8 @@
       <c r="R30" s="27" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="inlineStr">
-        <is>
-          <t>Alain Casali</t>
-        </is>
-      </c>
-      <c r="B31" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="64" t="n"/>
       <c r="E31" s="59" t="n"/>
@@ -10570,14 +10540,8 @@
       <c r="R31" s="27" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="inlineStr">
-        <is>
-          <t>Christian Ernst</t>
-        </is>
-      </c>
-      <c r="B32" s="27" t="n">
-        <v>1</v>
-      </c>
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
@@ -10598,11 +10562,13 @@
     <row r="33">
       <c r="A33" s="36" t="inlineStr">
         <is>
-          <t>Basma Boukenze</t>
-        </is>
-      </c>
-      <c r="B33" s="28" t="n">
-        <v>1</v>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="27" t="n"/>
@@ -11407,9 +11373,7 @@
       <c r="K57" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="21" t="n">
-        <v>12</v>
-      </c>
+      <c r="L57" s="21" t="n"/>
       <c r="M57" s="24" t="n">
         <v>30</v>
       </c>
@@ -11424,11 +11388,7 @@
       <c r="R57" s="23" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>CHRISTIAN ERNST</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
       <c r="B58" s="66" t="n"/>
       <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
@@ -11444,15 +11404,9 @@
         <v>0</v>
       </c>
       <c r="L58" s="21" t="n"/>
-      <c r="M58" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="N58" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O58" s="21" t="n">
-        <v>38</v>
-      </c>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
       <c r="P58" s="22" t="n">
         <v>0</v>
       </c>
@@ -11464,11 +11418,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="inlineStr">
-        <is>
-          <t>BASMA BOUKENZE</t>
-        </is>
-      </c>
+      <c r="A59" s="21" t="n"/>
       <c r="B59" s="66" t="n"/>
       <c r="C59" s="21" t="n"/>
       <c r="D59" s="21" t="n"/>
@@ -11484,15 +11434,9 @@
         <v>0</v>
       </c>
       <c r="L59" s="21" t="n"/>
-      <c r="M59" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="N59" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O59" s="21" t="n">
-        <v>38</v>
-      </c>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
       <c r="P59" s="22" t="n">
         <v>0</v>
       </c>
@@ -11730,11 +11674,7 @@
       <c r="R65" s="23" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="inlineStr">
-        <is>
-          <t>ALAIN CASALI</t>
-        </is>
-      </c>
+      <c r="A66" s="21" t="n"/>
       <c r="B66" s="66" t="n"/>
       <c r="C66" s="21" t="n"/>
       <c r="D66" s="21" t="n"/>
@@ -11749,18 +11689,10 @@
       <c r="K66" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L66" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="M66" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="N66" s="21" t="n">
-        <v>152</v>
-      </c>
-      <c r="O66" s="21" t="n">
-        <v>76</v>
-      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
       <c r="P66" s="22" t="n">
         <v>0</v>
       </c>
@@ -13251,7 +13183,7 @@
     <row r="56">
       <c r="A56" s="24" t="inlineStr">
         <is>
-          <t>TEST2</t>
+          <t>CHRISTIAN LAKHAL</t>
         </is>
       </c>
       <c r="B56" s="66" t="n"/>
@@ -13285,11 +13217,7 @@
       <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="68" t="inlineStr">
-        <is>
-          <t>CHRISTIAN LAKHAL</t>
-        </is>
-      </c>
+      <c r="A57" s="68" t="n"/>
       <c r="B57" s="66" t="n"/>
       <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
